--- a/Code/Results/Cases/Case_3_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9896100624276931</v>
+        <v>0.9896100624276948</v>
       </c>
       <c r="D2">
-        <v>1.011271921238317</v>
+        <v>1.011271921238318</v>
       </c>
       <c r="E2">
-        <v>0.9974594327030302</v>
+        <v>0.9974594327030312</v>
       </c>
       <c r="F2">
-        <v>1.008973988156439</v>
+        <v>1.008973988156441</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042692394279014</v>
+        <v>1.042692394279015</v>
       </c>
       <c r="J2">
-        <v>1.01210603877472</v>
+        <v>1.012106038774721</v>
       </c>
       <c r="K2">
-        <v>1.022576422511394</v>
+        <v>1.022576422511395</v>
       </c>
       <c r="L2">
         <v>1.008954275505868</v>
       </c>
       <c r="M2">
-        <v>1.020309700940758</v>
+        <v>1.020309700940759</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9991062449500775</v>
+        <v>0.9991062449500787</v>
       </c>
       <c r="D3">
-        <v>1.018741783401636</v>
+        <v>1.018741783401637</v>
       </c>
       <c r="E3">
-        <v>1.005741969757023</v>
+        <v>1.005741969757024</v>
       </c>
       <c r="F3">
         <v>1.017717249440507</v>
@@ -474,16 +474,16 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046220139571544</v>
+        <v>1.046220139571545</v>
       </c>
       <c r="J3">
-        <v>1.019621304318175</v>
+        <v>1.019621304318176</v>
       </c>
       <c r="K3">
-        <v>1.029140346737101</v>
+        <v>1.029140346737102</v>
       </c>
       <c r="L3">
-        <v>1.016301904438911</v>
+        <v>1.016301904438912</v>
       </c>
       <c r="M3">
         <v>1.028128344560554</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005014395160413</v>
+        <v>1.005014395160414</v>
       </c>
       <c r="D4">
-        <v>1.023392311898562</v>
+        <v>1.023392311898563</v>
       </c>
       <c r="E4">
-        <v>1.010896595951446</v>
+        <v>1.010896595951447</v>
       </c>
       <c r="F4">
-        <v>1.023166819399792</v>
+        <v>1.023166819399793</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048398976254025</v>
+        <v>1.048398976254026</v>
       </c>
       <c r="J4">
         <v>1.024290696174514</v>
       </c>
       <c r="K4">
-        <v>1.033216377689696</v>
+        <v>1.033216377689697</v>
       </c>
       <c r="L4">
-        <v>1.020865263784736</v>
+        <v>1.020865263784737</v>
       </c>
       <c r="M4">
-        <v>1.032993456009418</v>
+        <v>1.03299345600942</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00744562917779</v>
+        <v>1.007445629177791</v>
       </c>
       <c r="D5">
-        <v>1.025306598031873</v>
+        <v>1.025306598031875</v>
       </c>
       <c r="E5">
-        <v>1.013018009905321</v>
+        <v>1.013018009905323</v>
       </c>
       <c r="F5">
-        <v>1.025411546139478</v>
+        <v>1.025411546139479</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049291655513702</v>
+        <v>1.049291655513703</v>
       </c>
       <c r="J5">
-        <v>1.026210576271774</v>
+        <v>1.026210576271776</v>
       </c>
       <c r="K5">
-        <v>1.03489170411736</v>
+        <v>1.034891704117361</v>
       </c>
       <c r="L5">
-        <v>1.022741092069769</v>
+        <v>1.022741092069771</v>
       </c>
       <c r="M5">
-        <v>1.034995491381211</v>
+        <v>1.034995491381212</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007850872195608</v>
+        <v>1.00785087219561</v>
       </c>
       <c r="D6">
-        <v>1.025625704066594</v>
+        <v>1.025625704066596</v>
       </c>
       <c r="E6">
-        <v>1.013371623601814</v>
+        <v>1.013371623601816</v>
       </c>
       <c r="F6">
-        <v>1.025785826777185</v>
+        <v>1.025785826777186</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049440215844947</v>
+        <v>1.049440215844949</v>
       </c>
       <c r="J6">
-        <v>1.026530489411489</v>
+        <v>1.02653048941149</v>
       </c>
       <c r="K6">
-        <v>1.035170831236506</v>
+        <v>1.035170831236507</v>
       </c>
       <c r="L6">
-        <v>1.023053637863012</v>
+        <v>1.023053637863014</v>
       </c>
       <c r="M6">
-        <v>1.035329191860268</v>
+        <v>1.03532919186027</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005047082885509</v>
+        <v>1.005047082885507</v>
       </c>
       <c r="D7">
-        <v>1.023418047256455</v>
+        <v>1.023418047256453</v>
       </c>
       <c r="E7">
-        <v>1.010925117290041</v>
+        <v>1.010925117290038</v>
       </c>
       <c r="F7">
-        <v>1.023196991029518</v>
+        <v>1.023196991029516</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048410993914338</v>
+        <v>1.048410993914337</v>
       </c>
       <c r="J7">
-        <v>1.024316515236285</v>
+        <v>1.024316515236282</v>
       </c>
       <c r="K7">
-        <v>1.033238910303199</v>
+        <v>1.033238910303196</v>
       </c>
       <c r="L7">
-        <v>1.020890492237362</v>
+        <v>1.02089049223736</v>
       </c>
       <c r="M7">
-        <v>1.033020373305604</v>
+        <v>1.033020373305602</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9928709169837424</v>
+        <v>0.9928709169837409</v>
       </c>
       <c r="D8">
-        <v>1.013836203583548</v>
+        <v>1.013836203583546</v>
       </c>
       <c r="E8">
-        <v>1.000303132204571</v>
+        <v>1.00030313220457</v>
       </c>
       <c r="F8">
-        <v>1.01197409893534</v>
+        <v>1.011974098935339</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.043907111149977</v>
       </c>
       <c r="J8">
-        <v>1.01468795948257</v>
+        <v>1.014687959482569</v>
       </c>
       <c r="K8">
-        <v>1.024831960430905</v>
+        <v>1.024831960430904</v>
       </c>
       <c r="L8">
-        <v>1.011478998936787</v>
+        <v>1.011478998936786</v>
       </c>
       <c r="M8">
-        <v>1.022994279953829</v>
+        <v>1.022994279953828</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -690,13 +690,13 @@
         <v>0.9693915821356864</v>
       </c>
       <c r="D9">
-        <v>0.995394213755902</v>
+        <v>0.9953942137559016</v>
       </c>
       <c r="E9">
-        <v>0.9798400594297548</v>
+        <v>0.9798400594297549</v>
       </c>
       <c r="F9">
-        <v>0.9904238368256291</v>
+        <v>0.9904238368256286</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,10 +705,10 @@
         <v>1.035094362881402</v>
       </c>
       <c r="J9">
-        <v>0.9960735121854942</v>
+        <v>0.9960735121854941</v>
       </c>
       <c r="K9">
-        <v>1.008562461252012</v>
+        <v>1.008562461252011</v>
       </c>
       <c r="L9">
         <v>0.9932689112158372</v>
@@ -728,13 +728,13 @@
         <v>0.9520240140270327</v>
       </c>
       <c r="D10">
-        <v>0.9817921399802344</v>
+        <v>0.9817921399802342</v>
       </c>
       <c r="E10">
-        <v>0.9647278996435642</v>
+        <v>0.9647278996435644</v>
       </c>
       <c r="F10">
-        <v>0.9745613834286965</v>
+        <v>0.9745613834286961</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,13 +746,13 @@
         <v>0.9822794682146172</v>
       </c>
       <c r="K10">
-        <v>0.9964981134692482</v>
+        <v>0.9964981134692479</v>
       </c>
       <c r="L10">
-        <v>0.9797646079641904</v>
+        <v>0.9797646079641907</v>
       </c>
       <c r="M10">
-        <v>0.9894056490282673</v>
+        <v>0.9894056490282669</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9439955838049836</v>
+        <v>0.9439955838049855</v>
       </c>
       <c r="D11">
-        <v>0.9755180779583545</v>
+        <v>0.9755180779583561</v>
       </c>
       <c r="E11">
-        <v>0.9577509931663545</v>
+        <v>0.9577509931663561</v>
       </c>
       <c r="F11">
-        <v>0.9672517728957428</v>
+        <v>0.9672517728957447</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025427412881746</v>
+        <v>1.025427412881747</v>
       </c>
       <c r="J11">
-        <v>0.9758992042294956</v>
+        <v>0.9758992042294973</v>
       </c>
       <c r="K11">
-        <v>0.9909169425916624</v>
+        <v>0.9909169425916641</v>
       </c>
       <c r="L11">
-        <v>0.9735162074782265</v>
+        <v>0.973516207478228</v>
       </c>
       <c r="M11">
-        <v>0.9828188758119463</v>
+        <v>0.9828188758119483</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9409262723603679</v>
+        <v>0.9409262723603653</v>
       </c>
       <c r="D12">
-        <v>0.9731219790766227</v>
+        <v>0.9731219790766206</v>
       </c>
       <c r="E12">
-        <v>0.9550853576302401</v>
+        <v>0.9550853576302379</v>
       </c>
       <c r="F12">
-        <v>0.9644611988000418</v>
+        <v>0.9644611988000399</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024252256648512</v>
+        <v>1.024252256648511</v>
       </c>
       <c r="J12">
-        <v>0.9734596641204225</v>
+        <v>0.9734596641204201</v>
       </c>
       <c r="K12">
-        <v>0.9887828944014581</v>
+        <v>0.9887828944014559</v>
       </c>
       <c r="L12">
-        <v>0.9711267877122124</v>
+        <v>0.9711267877122102</v>
       </c>
       <c r="M12">
-        <v>0.9803024784588592</v>
+        <v>0.9803024784588574</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,13 +839,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9415887950492544</v>
+        <v>0.9415887950492549</v>
       </c>
       <c r="D13">
-        <v>0.9736390651762735</v>
+        <v>0.9736390651762736</v>
       </c>
       <c r="E13">
-        <v>0.9556606639358471</v>
+        <v>0.9556606639358474</v>
       </c>
       <c r="F13">
         <v>0.9650633695541325</v>
@@ -863,10 +863,10 @@
         <v>0.9892435467047961</v>
       </c>
       <c r="L13">
-        <v>0.9716425766494492</v>
+        <v>0.9716425766494495</v>
       </c>
       <c r="M13">
-        <v>0.9808455660387252</v>
+        <v>0.9808455660387253</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9437437232018864</v>
+        <v>0.9437437232018863</v>
       </c>
       <c r="D14">
-        <v>0.9753214060784823</v>
+        <v>0.9753214060784819</v>
       </c>
       <c r="E14">
-        <v>0.9575322213396334</v>
+        <v>0.9575322213396331</v>
       </c>
       <c r="F14">
-        <v>0.9670227024680693</v>
+        <v>0.9670227024680685</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.02533102852549</v>
       </c>
       <c r="J14">
-        <v>0.9756990264129398</v>
+        <v>0.9756990264129395</v>
       </c>
       <c r="K14">
-        <v>0.9907418324262204</v>
+        <v>0.9907418324262197</v>
       </c>
       <c r="L14">
-        <v>0.9733201481805172</v>
+        <v>0.9733201481805167</v>
       </c>
       <c r="M14">
-        <v>0.9826123479474469</v>
+        <v>0.9826123479474462</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9450595282845539</v>
+        <v>0.9450595282845546</v>
       </c>
       <c r="D15">
-        <v>0.9763489909521332</v>
+        <v>0.9763489909521336</v>
       </c>
       <c r="E15">
-        <v>0.9586752292769067</v>
+        <v>0.9586752292769073</v>
       </c>
       <c r="F15">
-        <v>0.968219605926836</v>
+        <v>0.9682196059268364</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.025834479066192</v>
       </c>
       <c r="J15">
-        <v>0.9767448111965988</v>
+        <v>0.9767448111965994</v>
       </c>
       <c r="K15">
-        <v>0.9916566555098284</v>
+        <v>0.9916566555098288</v>
       </c>
       <c r="L15">
-        <v>0.9743444047534044</v>
+        <v>0.974344404753405</v>
       </c>
       <c r="M15">
-        <v>0.9836913932459386</v>
+        <v>0.9836913932459388</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9525452517684494</v>
+        <v>0.9525452517684481</v>
       </c>
       <c r="D16">
-        <v>0.9821997938490475</v>
+        <v>0.9821997938490464</v>
       </c>
       <c r="E16">
-        <v>0.9651810775087593</v>
+        <v>0.965181077508758</v>
       </c>
       <c r="F16">
-        <v>0.9750364621032905</v>
+        <v>0.9750364621032892</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028693953200621</v>
+        <v>1.02869395320062</v>
       </c>
       <c r="J16">
-        <v>0.9826936418610972</v>
+        <v>0.9826936418610959</v>
       </c>
       <c r="K16">
-        <v>0.9968604022182296</v>
+        <v>0.9968604022182287</v>
       </c>
       <c r="L16">
-        <v>0.9801701794885461</v>
+        <v>0.9801701794885449</v>
       </c>
       <c r="M16">
-        <v>0.9898335063499077</v>
+        <v>0.9898335063499065</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.957097806413045</v>
+        <v>0.9570978064130442</v>
       </c>
       <c r="D17">
-        <v>0.9857618666640798</v>
+        <v>0.9857618666640792</v>
       </c>
       <c r="E17">
-        <v>0.9691402167614436</v>
+        <v>0.9691402167614427</v>
       </c>
       <c r="F17">
-        <v>0.9791884749456569</v>
+        <v>0.9791884749456562</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.030428708092697</v>
       </c>
       <c r="J17">
-        <v>0.9863106900797404</v>
+        <v>0.9863106900797396</v>
       </c>
       <c r="K17">
         <v>1.000024234096744</v>
       </c>
       <c r="L17">
-        <v>0.9837118660908348</v>
+        <v>0.9837118660908339</v>
       </c>
       <c r="M17">
-        <v>0.9935715180890022</v>
+        <v>0.9935715180890013</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9597050421352199</v>
+        <v>0.9597050421352216</v>
       </c>
       <c r="D18">
-        <v>0.9878030952415847</v>
+        <v>0.987803095241586</v>
       </c>
       <c r="E18">
-        <v>0.9714084087853497</v>
+        <v>0.9714084087853514</v>
       </c>
       <c r="F18">
-        <v>0.9815684259740954</v>
+        <v>0.9815684259740967</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031420596421041</v>
+        <v>1.031420596421042</v>
       </c>
       <c r="J18">
-        <v>0.9883817992249972</v>
+        <v>0.9883817992249986</v>
       </c>
       <c r="K18">
-        <v>1.001835737654186</v>
+        <v>1.001835737654188</v>
       </c>
       <c r="L18">
-        <v>0.9857396220135178</v>
+        <v>0.9857396220135193</v>
       </c>
       <c r="M18">
-        <v>0.995713082194332</v>
+        <v>0.9957130821943331</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9605861624982989</v>
+        <v>0.960586162498294</v>
       </c>
       <c r="D19">
-        <v>0.9884931307344778</v>
+        <v>0.9884931307344734</v>
       </c>
       <c r="E19">
-        <v>0.9721750763157301</v>
+        <v>0.9721750763157253</v>
       </c>
       <c r="F19">
-        <v>0.9823730798129702</v>
+        <v>0.9823730798129662</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031755529747003</v>
+        <v>1.031755529747001</v>
       </c>
       <c r="J19">
-        <v>0.98908166663428</v>
+        <v>0.9890816666342751</v>
       </c>
       <c r="K19">
-        <v>1.002447860595519</v>
+        <v>1.002447860595515</v>
       </c>
       <c r="L19">
-        <v>0.9864248047581609</v>
+        <v>0.9864248047581564</v>
       </c>
       <c r="M19">
-        <v>0.9964369558021509</v>
+        <v>0.996436955802147</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9566144165565434</v>
+        <v>0.9566144165565441</v>
       </c>
       <c r="D20">
-        <v>0.9853835141222744</v>
+        <v>0.9853835141222752</v>
       </c>
       <c r="E20">
-        <v>0.9687197498633695</v>
+        <v>0.9687197498633699</v>
       </c>
       <c r="F20">
-        <v>0.9787473923903808</v>
+        <v>0.9787473923903816</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030244677365895</v>
+        <v>1.030244677365896</v>
       </c>
       <c r="J20">
-        <v>0.9859266687025053</v>
+        <v>0.985926668702506</v>
       </c>
       <c r="K20">
-        <v>0.9996883399408623</v>
+        <v>0.9996883399408631</v>
       </c>
       <c r="L20">
-        <v>0.9833358666746193</v>
+        <v>0.9833358666746199</v>
       </c>
       <c r="M20">
-        <v>0.9931745289160241</v>
+        <v>0.9931745289160251</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9431116561422599</v>
+        <v>0.9431116561422616</v>
       </c>
       <c r="D21">
-        <v>0.9748278820234606</v>
+        <v>0.9748278820234625</v>
       </c>
       <c r="E21">
-        <v>0.956983221638085</v>
+        <v>0.956983221638087</v>
       </c>
       <c r="F21">
-        <v>0.9664478941624558</v>
+        <v>0.9664478941624576</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025089106241416</v>
+        <v>1.025089106241417</v>
       </c>
       <c r="J21">
-        <v>0.9751966575545991</v>
+        <v>0.9751966575546009</v>
       </c>
       <c r="K21">
-        <v>0.9903023732724197</v>
+        <v>0.9903023732724214</v>
       </c>
       <c r="L21">
-        <v>0.9728281105191904</v>
+        <v>0.972828110519192</v>
       </c>
       <c r="M21">
-        <v>0.9820940772266156</v>
+        <v>0.9820940772266173</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9341102713980453</v>
+        <v>0.9341102713980438</v>
       </c>
       <c r="D22">
-        <v>0.9678062017641633</v>
+        <v>0.9678062017641623</v>
       </c>
       <c r="E22">
-        <v>0.9491693288662797</v>
+        <v>0.9491693288662786</v>
       </c>
       <c r="F22">
-        <v>0.9582720707833232</v>
+        <v>0.9582720707833223</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.021638501692422</v>
       </c>
       <c r="J22">
-        <v>0.9680418794192114</v>
+        <v>0.9680418794192099</v>
       </c>
       <c r="K22">
-        <v>0.9840435881212021</v>
+        <v>0.9840435881212012</v>
       </c>
       <c r="L22">
-        <v>0.9658197925519419</v>
+        <v>0.9658197925519408</v>
       </c>
       <c r="M22">
-        <v>0.9747181050798851</v>
+        <v>0.9747181050798841</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9389348321050485</v>
+        <v>0.9389348321050492</v>
       </c>
       <c r="D23">
-        <v>0.9715681056906966</v>
+        <v>0.971568105690697</v>
       </c>
       <c r="E23">
-        <v>0.9533563509467291</v>
+        <v>0.9533563509467303</v>
       </c>
       <c r="F23">
-        <v>0.9626517841318323</v>
+        <v>0.9626517841318332</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023489153826192</v>
+        <v>1.023489153826193</v>
       </c>
       <c r="J23">
-        <v>0.9718767737836437</v>
+        <v>0.9718767737836447</v>
       </c>
       <c r="K23">
-        <v>0.9873982220862753</v>
+        <v>0.9873982220862757</v>
       </c>
       <c r="L23">
-        <v>0.969576337403837</v>
+        <v>0.9695763374038382</v>
       </c>
       <c r="M23">
-        <v>0.9786703346301348</v>
+        <v>0.9786703346301356</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.956832987755682</v>
+        <v>0.9568329877556813</v>
       </c>
       <c r="D24">
-        <v>0.985554587466033</v>
+        <v>0.9855545874660326</v>
       </c>
       <c r="E24">
-        <v>0.968909867124948</v>
+        <v>0.9689098671249474</v>
       </c>
       <c r="F24">
-        <v>0.9789468272562982</v>
+        <v>0.9789468272562977</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.030327894325509</v>
       </c>
       <c r="J24">
-        <v>0.9861003102645175</v>
+        <v>0.9861003102645171</v>
       </c>
       <c r="K24">
-        <v>0.9998402202950168</v>
+        <v>0.9998402202950165</v>
       </c>
       <c r="L24">
-        <v>0.9835058816044535</v>
+        <v>0.9835058816044532</v>
       </c>
       <c r="M24">
-        <v>0.9933540303793031</v>
+        <v>0.9933540303793028</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9757342183938974</v>
+        <v>0.9757342183938954</v>
       </c>
       <c r="D25">
-        <v>1.000370687983054</v>
+        <v>1.000370687983052</v>
       </c>
       <c r="E25">
-        <v>0.9853646890006101</v>
+        <v>0.9853646890006079</v>
       </c>
       <c r="F25">
-        <v>0.9962334969612332</v>
+        <v>0.996233496961231</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037489063121523</v>
+        <v>1.037489063121522</v>
       </c>
       <c r="J25">
-        <v>1.001106758042638</v>
+        <v>1.001106758042636</v>
       </c>
       <c r="K25">
-        <v>1.012963252222216</v>
+        <v>1.012963252222214</v>
       </c>
       <c r="L25">
-        <v>0.998194529062159</v>
+        <v>0.9981945290621568</v>
       </c>
       <c r="M25">
-        <v>1.008890565791373</v>
+        <v>1.008890565791371</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9896100624276948</v>
+        <v>0.9896100624276931</v>
       </c>
       <c r="D2">
-        <v>1.011271921238318</v>
+        <v>1.011271921238317</v>
       </c>
       <c r="E2">
-        <v>0.9974594327030312</v>
+        <v>0.9974594327030302</v>
       </c>
       <c r="F2">
-        <v>1.008973988156441</v>
+        <v>1.008973988156439</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042692394279015</v>
+        <v>1.042692394279014</v>
       </c>
       <c r="J2">
-        <v>1.012106038774721</v>
+        <v>1.01210603877472</v>
       </c>
       <c r="K2">
-        <v>1.022576422511395</v>
+        <v>1.022576422511394</v>
       </c>
       <c r="L2">
         <v>1.008954275505868</v>
       </c>
       <c r="M2">
-        <v>1.020309700940759</v>
+        <v>1.020309700940758</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9991062449500787</v>
+        <v>0.9991062449500775</v>
       </c>
       <c r="D3">
-        <v>1.018741783401637</v>
+        <v>1.018741783401636</v>
       </c>
       <c r="E3">
-        <v>1.005741969757024</v>
+        <v>1.005741969757023</v>
       </c>
       <c r="F3">
         <v>1.017717249440507</v>
@@ -474,16 +474,16 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046220139571545</v>
+        <v>1.046220139571544</v>
       </c>
       <c r="J3">
-        <v>1.019621304318176</v>
+        <v>1.019621304318175</v>
       </c>
       <c r="K3">
-        <v>1.029140346737102</v>
+        <v>1.029140346737101</v>
       </c>
       <c r="L3">
-        <v>1.016301904438912</v>
+        <v>1.016301904438911</v>
       </c>
       <c r="M3">
         <v>1.028128344560554</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005014395160414</v>
+        <v>1.005014395160413</v>
       </c>
       <c r="D4">
-        <v>1.023392311898563</v>
+        <v>1.023392311898562</v>
       </c>
       <c r="E4">
-        <v>1.010896595951447</v>
+        <v>1.010896595951446</v>
       </c>
       <c r="F4">
-        <v>1.023166819399793</v>
+        <v>1.023166819399792</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048398976254026</v>
+        <v>1.048398976254025</v>
       </c>
       <c r="J4">
         <v>1.024290696174514</v>
       </c>
       <c r="K4">
-        <v>1.033216377689697</v>
+        <v>1.033216377689696</v>
       </c>
       <c r="L4">
-        <v>1.020865263784737</v>
+        <v>1.020865263784736</v>
       </c>
       <c r="M4">
-        <v>1.03299345600942</v>
+        <v>1.032993456009418</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007445629177791</v>
+        <v>1.00744562917779</v>
       </c>
       <c r="D5">
-        <v>1.025306598031875</v>
+        <v>1.025306598031873</v>
       </c>
       <c r="E5">
-        <v>1.013018009905323</v>
+        <v>1.013018009905321</v>
       </c>
       <c r="F5">
-        <v>1.025411546139479</v>
+        <v>1.025411546139478</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049291655513703</v>
+        <v>1.049291655513702</v>
       </c>
       <c r="J5">
-        <v>1.026210576271776</v>
+        <v>1.026210576271774</v>
       </c>
       <c r="K5">
-        <v>1.034891704117361</v>
+        <v>1.03489170411736</v>
       </c>
       <c r="L5">
-        <v>1.022741092069771</v>
+        <v>1.022741092069769</v>
       </c>
       <c r="M5">
-        <v>1.034995491381212</v>
+        <v>1.034995491381211</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00785087219561</v>
+        <v>1.007850872195608</v>
       </c>
       <c r="D6">
-        <v>1.025625704066596</v>
+        <v>1.025625704066594</v>
       </c>
       <c r="E6">
-        <v>1.013371623601816</v>
+        <v>1.013371623601814</v>
       </c>
       <c r="F6">
-        <v>1.025785826777186</v>
+        <v>1.025785826777185</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049440215844949</v>
+        <v>1.049440215844947</v>
       </c>
       <c r="J6">
-        <v>1.02653048941149</v>
+        <v>1.026530489411489</v>
       </c>
       <c r="K6">
-        <v>1.035170831236507</v>
+        <v>1.035170831236506</v>
       </c>
       <c r="L6">
-        <v>1.023053637863014</v>
+        <v>1.023053637863012</v>
       </c>
       <c r="M6">
-        <v>1.03532919186027</v>
+        <v>1.035329191860268</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005047082885507</v>
+        <v>1.005047082885509</v>
       </c>
       <c r="D7">
-        <v>1.023418047256453</v>
+        <v>1.023418047256455</v>
       </c>
       <c r="E7">
-        <v>1.010925117290038</v>
+        <v>1.010925117290041</v>
       </c>
       <c r="F7">
-        <v>1.023196991029516</v>
+        <v>1.023196991029518</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048410993914337</v>
+        <v>1.048410993914338</v>
       </c>
       <c r="J7">
-        <v>1.024316515236282</v>
+        <v>1.024316515236285</v>
       </c>
       <c r="K7">
-        <v>1.033238910303196</v>
+        <v>1.033238910303199</v>
       </c>
       <c r="L7">
-        <v>1.02089049223736</v>
+        <v>1.020890492237362</v>
       </c>
       <c r="M7">
-        <v>1.033020373305602</v>
+        <v>1.033020373305604</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9928709169837409</v>
+        <v>0.9928709169837424</v>
       </c>
       <c r="D8">
-        <v>1.013836203583546</v>
+        <v>1.013836203583548</v>
       </c>
       <c r="E8">
-        <v>1.00030313220457</v>
+        <v>1.000303132204571</v>
       </c>
       <c r="F8">
-        <v>1.011974098935339</v>
+        <v>1.01197409893534</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.043907111149977</v>
       </c>
       <c r="J8">
-        <v>1.014687959482569</v>
+        <v>1.01468795948257</v>
       </c>
       <c r="K8">
-        <v>1.024831960430904</v>
+        <v>1.024831960430905</v>
       </c>
       <c r="L8">
-        <v>1.011478998936786</v>
+        <v>1.011478998936787</v>
       </c>
       <c r="M8">
-        <v>1.022994279953828</v>
+        <v>1.022994279953829</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -690,13 +690,13 @@
         <v>0.9693915821356864</v>
       </c>
       <c r="D9">
-        <v>0.9953942137559016</v>
+        <v>0.995394213755902</v>
       </c>
       <c r="E9">
-        <v>0.9798400594297549</v>
+        <v>0.9798400594297548</v>
       </c>
       <c r="F9">
-        <v>0.9904238368256286</v>
+        <v>0.9904238368256291</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,10 +705,10 @@
         <v>1.035094362881402</v>
       </c>
       <c r="J9">
-        <v>0.9960735121854941</v>
+        <v>0.9960735121854942</v>
       </c>
       <c r="K9">
-        <v>1.008562461252011</v>
+        <v>1.008562461252012</v>
       </c>
       <c r="L9">
         <v>0.9932689112158372</v>
@@ -728,13 +728,13 @@
         <v>0.9520240140270327</v>
       </c>
       <c r="D10">
-        <v>0.9817921399802342</v>
+        <v>0.9817921399802344</v>
       </c>
       <c r="E10">
-        <v>0.9647278996435644</v>
+        <v>0.9647278996435642</v>
       </c>
       <c r="F10">
-        <v>0.9745613834286961</v>
+        <v>0.9745613834286965</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,13 +746,13 @@
         <v>0.9822794682146172</v>
       </c>
       <c r="K10">
-        <v>0.9964981134692479</v>
+        <v>0.9964981134692482</v>
       </c>
       <c r="L10">
-        <v>0.9797646079641907</v>
+        <v>0.9797646079641904</v>
       </c>
       <c r="M10">
-        <v>0.9894056490282669</v>
+        <v>0.9894056490282673</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9439955838049855</v>
+        <v>0.9439955838049836</v>
       </c>
       <c r="D11">
-        <v>0.9755180779583561</v>
+        <v>0.9755180779583545</v>
       </c>
       <c r="E11">
-        <v>0.9577509931663561</v>
+        <v>0.9577509931663545</v>
       </c>
       <c r="F11">
-        <v>0.9672517728957447</v>
+        <v>0.9672517728957428</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025427412881747</v>
+        <v>1.025427412881746</v>
       </c>
       <c r="J11">
-        <v>0.9758992042294973</v>
+        <v>0.9758992042294956</v>
       </c>
       <c r="K11">
-        <v>0.9909169425916641</v>
+        <v>0.9909169425916624</v>
       </c>
       <c r="L11">
-        <v>0.973516207478228</v>
+        <v>0.9735162074782265</v>
       </c>
       <c r="M11">
-        <v>0.9828188758119483</v>
+        <v>0.9828188758119463</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9409262723603653</v>
+        <v>0.9409262723603679</v>
       </c>
       <c r="D12">
-        <v>0.9731219790766206</v>
+        <v>0.9731219790766227</v>
       </c>
       <c r="E12">
-        <v>0.9550853576302379</v>
+        <v>0.9550853576302401</v>
       </c>
       <c r="F12">
-        <v>0.9644611988000399</v>
+        <v>0.9644611988000418</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024252256648511</v>
+        <v>1.024252256648512</v>
       </c>
       <c r="J12">
-        <v>0.9734596641204201</v>
+        <v>0.9734596641204225</v>
       </c>
       <c r="K12">
-        <v>0.9887828944014559</v>
+        <v>0.9887828944014581</v>
       </c>
       <c r="L12">
-        <v>0.9711267877122102</v>
+        <v>0.9711267877122124</v>
       </c>
       <c r="M12">
-        <v>0.9803024784588574</v>
+        <v>0.9803024784588592</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,13 +839,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9415887950492549</v>
+        <v>0.9415887950492544</v>
       </c>
       <c r="D13">
-        <v>0.9736390651762736</v>
+        <v>0.9736390651762735</v>
       </c>
       <c r="E13">
-        <v>0.9556606639358474</v>
+        <v>0.9556606639358471</v>
       </c>
       <c r="F13">
         <v>0.9650633695541325</v>
@@ -863,10 +863,10 @@
         <v>0.9892435467047961</v>
       </c>
       <c r="L13">
-        <v>0.9716425766494495</v>
+        <v>0.9716425766494492</v>
       </c>
       <c r="M13">
-        <v>0.9808455660387253</v>
+        <v>0.9808455660387252</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9437437232018863</v>
+        <v>0.9437437232018864</v>
       </c>
       <c r="D14">
-        <v>0.9753214060784819</v>
+        <v>0.9753214060784823</v>
       </c>
       <c r="E14">
-        <v>0.9575322213396331</v>
+        <v>0.9575322213396334</v>
       </c>
       <c r="F14">
-        <v>0.9670227024680685</v>
+        <v>0.9670227024680693</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.02533102852549</v>
       </c>
       <c r="J14">
-        <v>0.9756990264129395</v>
+        <v>0.9756990264129398</v>
       </c>
       <c r="K14">
-        <v>0.9907418324262197</v>
+        <v>0.9907418324262204</v>
       </c>
       <c r="L14">
-        <v>0.9733201481805167</v>
+        <v>0.9733201481805172</v>
       </c>
       <c r="M14">
-        <v>0.9826123479474462</v>
+        <v>0.9826123479474469</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9450595282845546</v>
+        <v>0.9450595282845539</v>
       </c>
       <c r="D15">
-        <v>0.9763489909521336</v>
+        <v>0.9763489909521332</v>
       </c>
       <c r="E15">
-        <v>0.9586752292769073</v>
+        <v>0.9586752292769067</v>
       </c>
       <c r="F15">
-        <v>0.9682196059268364</v>
+        <v>0.968219605926836</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.025834479066192</v>
       </c>
       <c r="J15">
-        <v>0.9767448111965994</v>
+        <v>0.9767448111965988</v>
       </c>
       <c r="K15">
-        <v>0.9916566555098288</v>
+        <v>0.9916566555098284</v>
       </c>
       <c r="L15">
-        <v>0.974344404753405</v>
+        <v>0.9743444047534044</v>
       </c>
       <c r="M15">
-        <v>0.9836913932459388</v>
+        <v>0.9836913932459386</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9525452517684481</v>
+        <v>0.9525452517684494</v>
       </c>
       <c r="D16">
-        <v>0.9821997938490464</v>
+        <v>0.9821997938490475</v>
       </c>
       <c r="E16">
-        <v>0.965181077508758</v>
+        <v>0.9651810775087593</v>
       </c>
       <c r="F16">
-        <v>0.9750364621032892</v>
+        <v>0.9750364621032905</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02869395320062</v>
+        <v>1.028693953200621</v>
       </c>
       <c r="J16">
-        <v>0.9826936418610959</v>
+        <v>0.9826936418610972</v>
       </c>
       <c r="K16">
-        <v>0.9968604022182287</v>
+        <v>0.9968604022182296</v>
       </c>
       <c r="L16">
-        <v>0.9801701794885449</v>
+        <v>0.9801701794885461</v>
       </c>
       <c r="M16">
-        <v>0.9898335063499065</v>
+        <v>0.9898335063499077</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9570978064130442</v>
+        <v>0.957097806413045</v>
       </c>
       <c r="D17">
-        <v>0.9857618666640792</v>
+        <v>0.9857618666640798</v>
       </c>
       <c r="E17">
-        <v>0.9691402167614427</v>
+        <v>0.9691402167614436</v>
       </c>
       <c r="F17">
-        <v>0.9791884749456562</v>
+        <v>0.9791884749456569</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.030428708092697</v>
       </c>
       <c r="J17">
-        <v>0.9863106900797396</v>
+        <v>0.9863106900797404</v>
       </c>
       <c r="K17">
         <v>1.000024234096744</v>
       </c>
       <c r="L17">
-        <v>0.9837118660908339</v>
+        <v>0.9837118660908348</v>
       </c>
       <c r="M17">
-        <v>0.9935715180890013</v>
+        <v>0.9935715180890022</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9597050421352216</v>
+        <v>0.9597050421352199</v>
       </c>
       <c r="D18">
-        <v>0.987803095241586</v>
+        <v>0.9878030952415847</v>
       </c>
       <c r="E18">
-        <v>0.9714084087853514</v>
+        <v>0.9714084087853497</v>
       </c>
       <c r="F18">
-        <v>0.9815684259740967</v>
+        <v>0.9815684259740954</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031420596421042</v>
+        <v>1.031420596421041</v>
       </c>
       <c r="J18">
-        <v>0.9883817992249986</v>
+        <v>0.9883817992249972</v>
       </c>
       <c r="K18">
-        <v>1.001835737654188</v>
+        <v>1.001835737654186</v>
       </c>
       <c r="L18">
-        <v>0.9857396220135193</v>
+        <v>0.9857396220135178</v>
       </c>
       <c r="M18">
-        <v>0.9957130821943331</v>
+        <v>0.995713082194332</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.960586162498294</v>
+        <v>0.9605861624982989</v>
       </c>
       <c r="D19">
-        <v>0.9884931307344734</v>
+        <v>0.9884931307344778</v>
       </c>
       <c r="E19">
-        <v>0.9721750763157253</v>
+        <v>0.9721750763157301</v>
       </c>
       <c r="F19">
-        <v>0.9823730798129662</v>
+        <v>0.9823730798129702</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031755529747001</v>
+        <v>1.031755529747003</v>
       </c>
       <c r="J19">
-        <v>0.9890816666342751</v>
+        <v>0.98908166663428</v>
       </c>
       <c r="K19">
-        <v>1.002447860595515</v>
+        <v>1.002447860595519</v>
       </c>
       <c r="L19">
-        <v>0.9864248047581564</v>
+        <v>0.9864248047581609</v>
       </c>
       <c r="M19">
-        <v>0.996436955802147</v>
+        <v>0.9964369558021509</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9566144165565441</v>
+        <v>0.9566144165565434</v>
       </c>
       <c r="D20">
-        <v>0.9853835141222752</v>
+        <v>0.9853835141222744</v>
       </c>
       <c r="E20">
-        <v>0.9687197498633699</v>
+        <v>0.9687197498633695</v>
       </c>
       <c r="F20">
-        <v>0.9787473923903816</v>
+        <v>0.9787473923903808</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030244677365896</v>
+        <v>1.030244677365895</v>
       </c>
       <c r="J20">
-        <v>0.985926668702506</v>
+        <v>0.9859266687025053</v>
       </c>
       <c r="K20">
-        <v>0.9996883399408631</v>
+        <v>0.9996883399408623</v>
       </c>
       <c r="L20">
-        <v>0.9833358666746199</v>
+        <v>0.9833358666746193</v>
       </c>
       <c r="M20">
-        <v>0.9931745289160251</v>
+        <v>0.9931745289160241</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9431116561422616</v>
+        <v>0.9431116561422599</v>
       </c>
       <c r="D21">
-        <v>0.9748278820234625</v>
+        <v>0.9748278820234606</v>
       </c>
       <c r="E21">
-        <v>0.956983221638087</v>
+        <v>0.956983221638085</v>
       </c>
       <c r="F21">
-        <v>0.9664478941624576</v>
+        <v>0.9664478941624558</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025089106241417</v>
+        <v>1.025089106241416</v>
       </c>
       <c r="J21">
-        <v>0.9751966575546009</v>
+        <v>0.9751966575545991</v>
       </c>
       <c r="K21">
-        <v>0.9903023732724214</v>
+        <v>0.9903023732724197</v>
       </c>
       <c r="L21">
-        <v>0.972828110519192</v>
+        <v>0.9728281105191904</v>
       </c>
       <c r="M21">
-        <v>0.9820940772266173</v>
+        <v>0.9820940772266156</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9341102713980438</v>
+        <v>0.9341102713980453</v>
       </c>
       <c r="D22">
-        <v>0.9678062017641623</v>
+        <v>0.9678062017641633</v>
       </c>
       <c r="E22">
-        <v>0.9491693288662786</v>
+        <v>0.9491693288662797</v>
       </c>
       <c r="F22">
-        <v>0.9582720707833223</v>
+        <v>0.9582720707833232</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.021638501692422</v>
       </c>
       <c r="J22">
-        <v>0.9680418794192099</v>
+        <v>0.9680418794192114</v>
       </c>
       <c r="K22">
-        <v>0.9840435881212012</v>
+        <v>0.9840435881212021</v>
       </c>
       <c r="L22">
-        <v>0.9658197925519408</v>
+        <v>0.9658197925519419</v>
       </c>
       <c r="M22">
-        <v>0.9747181050798841</v>
+        <v>0.9747181050798851</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9389348321050492</v>
+        <v>0.9389348321050485</v>
       </c>
       <c r="D23">
-        <v>0.971568105690697</v>
+        <v>0.9715681056906966</v>
       </c>
       <c r="E23">
-        <v>0.9533563509467303</v>
+        <v>0.9533563509467291</v>
       </c>
       <c r="F23">
-        <v>0.9626517841318332</v>
+        <v>0.9626517841318323</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023489153826193</v>
+        <v>1.023489153826192</v>
       </c>
       <c r="J23">
-        <v>0.9718767737836447</v>
+        <v>0.9718767737836437</v>
       </c>
       <c r="K23">
-        <v>0.9873982220862757</v>
+        <v>0.9873982220862753</v>
       </c>
       <c r="L23">
-        <v>0.9695763374038382</v>
+        <v>0.969576337403837</v>
       </c>
       <c r="M23">
-        <v>0.9786703346301356</v>
+        <v>0.9786703346301348</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9568329877556813</v>
+        <v>0.956832987755682</v>
       </c>
       <c r="D24">
-        <v>0.9855545874660326</v>
+        <v>0.985554587466033</v>
       </c>
       <c r="E24">
-        <v>0.9689098671249474</v>
+        <v>0.968909867124948</v>
       </c>
       <c r="F24">
-        <v>0.9789468272562977</v>
+        <v>0.9789468272562982</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.030327894325509</v>
       </c>
       <c r="J24">
-        <v>0.9861003102645171</v>
+        <v>0.9861003102645175</v>
       </c>
       <c r="K24">
-        <v>0.9998402202950165</v>
+        <v>0.9998402202950168</v>
       </c>
       <c r="L24">
-        <v>0.9835058816044532</v>
+        <v>0.9835058816044535</v>
       </c>
       <c r="M24">
-        <v>0.9933540303793028</v>
+        <v>0.9933540303793031</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9757342183938954</v>
+        <v>0.9757342183938974</v>
       </c>
       <c r="D25">
-        <v>1.000370687983052</v>
+        <v>1.000370687983054</v>
       </c>
       <c r="E25">
-        <v>0.9853646890006079</v>
+        <v>0.9853646890006101</v>
       </c>
       <c r="F25">
-        <v>0.996233496961231</v>
+        <v>0.9962334969612332</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037489063121522</v>
+        <v>1.037489063121523</v>
       </c>
       <c r="J25">
-        <v>1.001106758042636</v>
+        <v>1.001106758042638</v>
       </c>
       <c r="K25">
-        <v>1.012963252222214</v>
+        <v>1.012963252222216</v>
       </c>
       <c r="L25">
-        <v>0.9981945290621568</v>
+        <v>0.998194529062159</v>
       </c>
       <c r="M25">
-        <v>1.008890565791371</v>
+        <v>1.008890565791373</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9896100624276931</v>
+        <v>0.9923837206513219</v>
       </c>
       <c r="D2">
-        <v>1.011271921238317</v>
+        <v>1.013495469799255</v>
       </c>
       <c r="E2">
-        <v>0.9974594327030302</v>
+        <v>0.9998292972673614</v>
       </c>
       <c r="F2">
-        <v>1.008973988156439</v>
+        <v>1.011082212355829</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042692394279014</v>
+        <v>1.043872634571635</v>
       </c>
       <c r="J2">
-        <v>1.01210603877472</v>
+        <v>1.01479464444453</v>
       </c>
       <c r="K2">
-        <v>1.022576422511394</v>
+        <v>1.024769939269036</v>
       </c>
       <c r="L2">
-        <v>1.008954275505868</v>
+        <v>1.011291010762385</v>
       </c>
       <c r="M2">
-        <v>1.020309700940758</v>
+        <v>1.022389283577458</v>
+      </c>
+      <c r="N2">
+        <v>1.016235769238214</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9991062449500775</v>
+        <v>1.001854186688281</v>
       </c>
       <c r="D3">
-        <v>1.018741783401636</v>
+        <v>1.020947877808158</v>
       </c>
       <c r="E3">
-        <v>1.005741969757023</v>
+        <v>1.008091518913901</v>
       </c>
       <c r="F3">
-        <v>1.017717249440507</v>
+        <v>1.019802532453744</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046220139571544</v>
+        <v>1.047392252259985</v>
       </c>
       <c r="J3">
-        <v>1.019621304318175</v>
+        <v>1.022294432014692</v>
       </c>
       <c r="K3">
-        <v>1.029140346737101</v>
+        <v>1.031319562971681</v>
       </c>
       <c r="L3">
-        <v>1.016301904438911</v>
+        <v>1.018621903630714</v>
       </c>
       <c r="M3">
-        <v>1.028128344560554</v>
+        <v>1.030188154007501</v>
+      </c>
+      <c r="N3">
+        <v>1.023746207366963</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005014395160413</v>
+        <v>1.007747682056146</v>
       </c>
       <c r="D4">
-        <v>1.023392311898562</v>
+        <v>1.025588519425778</v>
       </c>
       <c r="E4">
-        <v>1.010896595951446</v>
+        <v>1.013234623494294</v>
       </c>
       <c r="F4">
-        <v>1.023166819399792</v>
+        <v>1.025238931180372</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048398976254025</v>
+        <v>1.049566567458316</v>
       </c>
       <c r="J4">
-        <v>1.024290696174514</v>
+        <v>1.026955256455426</v>
       </c>
       <c r="K4">
-        <v>1.033216377689696</v>
+        <v>1.035387619355809</v>
       </c>
       <c r="L4">
-        <v>1.020865263784736</v>
+        <v>1.023175899901878</v>
       </c>
       <c r="M4">
-        <v>1.032993456009418</v>
+        <v>1.035041996304775</v>
+      </c>
+      <c r="N4">
+        <v>1.028413650713007</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00744562917779</v>
+        <v>1.01017317620525</v>
       </c>
       <c r="D5">
-        <v>1.025306598031873</v>
+        <v>1.027498948175202</v>
       </c>
       <c r="E5">
-        <v>1.013018009905321</v>
+        <v>1.015351538716216</v>
       </c>
       <c r="F5">
-        <v>1.025411546139478</v>
+        <v>1.027478476512602</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049291655513702</v>
+        <v>1.05045750313836</v>
       </c>
       <c r="J5">
-        <v>1.026210576271774</v>
+        <v>1.028871841690937</v>
       </c>
       <c r="K5">
-        <v>1.03489170411736</v>
+        <v>1.037059864943919</v>
       </c>
       <c r="L5">
-        <v>1.022741092069769</v>
+        <v>1.025048103421109</v>
       </c>
       <c r="M5">
-        <v>1.034995491381211</v>
+        <v>1.037039618568951</v>
+      </c>
+      <c r="N5">
+        <v>1.030332957719388</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007850872195608</v>
+        <v>1.010577478749646</v>
       </c>
       <c r="D6">
-        <v>1.025625704066594</v>
+        <v>1.027817423090523</v>
       </c>
       <c r="E6">
-        <v>1.013371623601814</v>
+        <v>1.015704416143351</v>
       </c>
       <c r="F6">
-        <v>1.025785826777185</v>
+        <v>1.027851906864394</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049440215844947</v>
+        <v>1.050605779433022</v>
       </c>
       <c r="J6">
-        <v>1.026530489411489</v>
+        <v>1.029191218570782</v>
       </c>
       <c r="K6">
-        <v>1.035170831236506</v>
+        <v>1.037338489809975</v>
       </c>
       <c r="L6">
-        <v>1.023053637863012</v>
+        <v>1.025360057835099</v>
       </c>
       <c r="M6">
-        <v>1.035329191860268</v>
+        <v>1.03737259603163</v>
+      </c>
+      <c r="N6">
+        <v>1.030652788151035</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005047082885509</v>
+        <v>1.007780291495584</v>
       </c>
       <c r="D7">
-        <v>1.023418047256455</v>
+        <v>1.02561420211136</v>
       </c>
       <c r="E7">
-        <v>1.010925117290041</v>
+        <v>1.013263083417704</v>
       </c>
       <c r="F7">
-        <v>1.023196991029518</v>
+        <v>1.025269032231681</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048410993914338</v>
+        <v>1.049578561226114</v>
       </c>
       <c r="J7">
-        <v>1.024316515236285</v>
+        <v>1.02698103033287</v>
       </c>
       <c r="K7">
-        <v>1.033238910303199</v>
+        <v>1.035410109776836</v>
       </c>
       <c r="L7">
-        <v>1.020890492237362</v>
+        <v>1.023201078743766</v>
       </c>
       <c r="M7">
-        <v>1.033020373305604</v>
+        <v>1.035068853406846</v>
+      </c>
+      <c r="N7">
+        <v>1.028439461192313</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9928709169837424</v>
+        <v>0.9956354373895798</v>
       </c>
       <c r="D8">
-        <v>1.013836203583548</v>
+        <v>1.016053537213465</v>
       </c>
       <c r="E8">
-        <v>1.000303132204571</v>
+        <v>1.002665766069836</v>
       </c>
       <c r="F8">
-        <v>1.01197409893534</v>
+        <v>1.014074194154909</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043907111149977</v>
+        <v>1.045084439230748</v>
       </c>
       <c r="J8">
-        <v>1.01468795948257</v>
+        <v>1.017371008345963</v>
       </c>
       <c r="K8">
-        <v>1.024831960430905</v>
+        <v>1.027020356778863</v>
       </c>
       <c r="L8">
-        <v>1.011478998936787</v>
+        <v>1.0138097485377</v>
       </c>
       <c r="M8">
-        <v>1.022994279953829</v>
+        <v>1.02506683751443</v>
+      </c>
+      <c r="N8">
+        <v>1.0188157918719</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9693915821356864</v>
+        <v>0.9722295313147247</v>
       </c>
       <c r="D9">
-        <v>0.995394213755902</v>
+        <v>0.9976617644576607</v>
       </c>
       <c r="E9">
-        <v>0.9798400594297548</v>
+        <v>0.9822610521935702</v>
       </c>
       <c r="F9">
-        <v>0.9904238368256291</v>
+        <v>0.9925886901484865</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035094362881402</v>
+        <v>1.036295625626987</v>
       </c>
       <c r="J9">
-        <v>0.9960735121854942</v>
+        <v>0.9988025438661288</v>
       </c>
       <c r="K9">
-        <v>1.008562461252012</v>
+        <v>1.010792892160438</v>
       </c>
       <c r="L9">
-        <v>0.9932689112158372</v>
+        <v>0.9956486409541658</v>
       </c>
       <c r="M9">
-        <v>1.003674215114247</v>
+        <v>1.005803166146664</v>
+      </c>
+      <c r="N9">
+        <v>1.000220958042672</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9520240140270327</v>
+        <v>0.9549287761218922</v>
       </c>
       <c r="D10">
-        <v>0.9817921399802344</v>
+        <v>0.9841057243619672</v>
       </c>
       <c r="E10">
-        <v>0.9647278996435642</v>
+        <v>0.9672023045107152</v>
       </c>
       <c r="F10">
-        <v>0.9745613834286965</v>
+        <v>0.9767842969924054</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028495119202291</v>
+        <v>1.029718857507606</v>
       </c>
       <c r="J10">
-        <v>0.9822794682146172</v>
+        <v>0.9850522201232879</v>
       </c>
       <c r="K10">
-        <v>0.9964981134692482</v>
+        <v>0.9987680098812044</v>
       </c>
       <c r="L10">
-        <v>0.9797646079641904</v>
+        <v>0.982190104550682</v>
       </c>
       <c r="M10">
-        <v>0.9894056490282673</v>
+        <v>0.9915857628036087</v>
+      </c>
+      <c r="N10">
+        <v>0.9864511072629318</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9439955838049836</v>
+        <v>0.9469353186792585</v>
       </c>
       <c r="D11">
-        <v>0.9755180779583545</v>
+        <v>0.9778558268618401</v>
       </c>
       <c r="E11">
-        <v>0.9577509931663545</v>
+        <v>0.9602534161385828</v>
       </c>
       <c r="F11">
-        <v>0.9672517728957428</v>
+        <v>0.9695048348532543</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025427412881746</v>
+        <v>1.026663072817174</v>
       </c>
       <c r="J11">
-        <v>0.9758992042294956</v>
+        <v>0.9786953164334514</v>
       </c>
       <c r="K11">
-        <v>0.9909169425916624</v>
+        <v>0.9932077915522362</v>
       </c>
       <c r="L11">
-        <v>0.9735162074782265</v>
+        <v>0.9759659466501033</v>
       </c>
       <c r="M11">
-        <v>0.9828188758119463</v>
+        <v>0.9850257077115138</v>
+      </c>
+      <c r="N11">
+        <v>0.9800851760407087</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9409262723603679</v>
+        <v>0.9438801195017267</v>
       </c>
       <c r="D12">
-        <v>0.9731219790766227</v>
+        <v>0.9754694878842762</v>
       </c>
       <c r="E12">
-        <v>0.9550853576302401</v>
+        <v>0.9575990939852157</v>
       </c>
       <c r="F12">
-        <v>0.9644611988000418</v>
+        <v>0.9667263860635656</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024252256648512</v>
+        <v>1.025492749965281</v>
       </c>
       <c r="J12">
-        <v>0.9734596641204225</v>
+        <v>0.9762652766939788</v>
       </c>
       <c r="K12">
-        <v>0.9887828944014581</v>
+        <v>0.9910822428404636</v>
       </c>
       <c r="L12">
-        <v>0.9711267877122124</v>
+        <v>0.9735863522372089</v>
       </c>
       <c r="M12">
-        <v>0.9803024784588592</v>
+        <v>0.9825200795820898</v>
+      </c>
+      <c r="N12">
+        <v>0.9776516853660766</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9415887950492544</v>
+        <v>0.9445395601395581</v>
       </c>
       <c r="D13">
-        <v>0.9736390651762735</v>
+        <v>0.9759844420881595</v>
       </c>
       <c r="E13">
-        <v>0.9556606639358471</v>
+        <v>0.9581719291958047</v>
       </c>
       <c r="F13">
-        <v>0.9650633695541325</v>
+        <v>0.9673259105729961</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024506020958152</v>
+        <v>1.025745457684401</v>
       </c>
       <c r="J13">
-        <v>0.9739862589689074</v>
+        <v>0.9767897933552018</v>
       </c>
       <c r="K13">
-        <v>0.9892435467047961</v>
+        <v>0.9915410368940596</v>
       </c>
       <c r="L13">
-        <v>0.9716425766494492</v>
+        <v>0.9740999934460631</v>
       </c>
       <c r="M13">
-        <v>0.9808455660387252</v>
+        <v>0.9830608158042204</v>
+      </c>
+      <c r="N13">
+        <v>0.9781769469011214</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9437437232018864</v>
+        <v>0.9466846002433047</v>
       </c>
       <c r="D14">
-        <v>0.9753214060784823</v>
+        <v>0.9776599447226582</v>
       </c>
       <c r="E14">
-        <v>0.9575322213396334</v>
+        <v>0.9600355598142832</v>
       </c>
       <c r="F14">
-        <v>0.9670227024680693</v>
+        <v>0.9692767466011188</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02533102852549</v>
+        <v>1.02656707920055</v>
       </c>
       <c r="J14">
-        <v>0.9756990264129398</v>
+        <v>0.9784959060380457</v>
       </c>
       <c r="K14">
-        <v>0.9907418324262204</v>
+        <v>0.9930333683967304</v>
       </c>
       <c r="L14">
-        <v>0.9733201481805172</v>
+        <v>0.9757706817085016</v>
       </c>
       <c r="M14">
-        <v>0.9826123479474469</v>
+        <v>0.9848200517042864</v>
+      </c>
+      <c r="N14">
+        <v>0.9798854824596688</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9450595282845539</v>
+        <v>0.947994469133311</v>
       </c>
       <c r="D15">
-        <v>0.9763489909521332</v>
+        <v>0.9786834254202533</v>
       </c>
       <c r="E15">
-        <v>0.9586752292769067</v>
+        <v>0.9611738098912624</v>
       </c>
       <c r="F15">
-        <v>0.968219605926836</v>
+        <v>0.9704685437774252</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025834479066192</v>
+        <v>1.027068499843203</v>
       </c>
       <c r="J15">
-        <v>0.9767448111965988</v>
+        <v>0.9795377052435434</v>
       </c>
       <c r="K15">
-        <v>0.9916566555098284</v>
+        <v>0.9939446226502603</v>
       </c>
       <c r="L15">
-        <v>0.9743444047534044</v>
+        <v>0.9767908114689942</v>
       </c>
       <c r="M15">
-        <v>0.9836913932459386</v>
+        <v>0.9858945651971824</v>
+      </c>
+      <c r="N15">
+        <v>0.9809287611395346</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9525452517684494</v>
+        <v>0.9554478369991111</v>
       </c>
       <c r="D16">
-        <v>0.9821997938490475</v>
+        <v>0.9845118753574285</v>
       </c>
       <c r="E16">
-        <v>0.9651810775087593</v>
+        <v>0.9676537394541911</v>
       </c>
       <c r="F16">
-        <v>0.9750364621032905</v>
+        <v>0.9772574940812091</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028693953200621</v>
+        <v>1.029916952441292</v>
       </c>
       <c r="J16">
-        <v>0.9826936418610972</v>
+        <v>0.9854649491733453</v>
       </c>
       <c r="K16">
-        <v>0.9968604022182296</v>
+        <v>0.9991290002175942</v>
       </c>
       <c r="L16">
-        <v>0.9801701794885461</v>
+        <v>0.982594172678245</v>
       </c>
       <c r="M16">
-        <v>0.9898335063499077</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9920119556423233</v>
+      </c>
+      <c r="N16">
+        <v>0.9868644224355813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.957097806413045</v>
+        <v>0.9599818458894178</v>
       </c>
       <c r="D17">
-        <v>0.9857618666640798</v>
+        <v>0.9880611514858332</v>
       </c>
       <c r="E17">
-        <v>0.9691402167614436</v>
+        <v>0.9715980360200946</v>
       </c>
       <c r="F17">
-        <v>0.9791884749456569</v>
+        <v>0.9813934510973052</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030428708092697</v>
+        <v>1.031645427159408</v>
       </c>
       <c r="J17">
-        <v>0.9863106900797404</v>
+        <v>0.9890697400001311</v>
       </c>
       <c r="K17">
-        <v>1.000024234096744</v>
+        <v>1.002281801053488</v>
       </c>
       <c r="L17">
-        <v>0.9837118660908348</v>
+        <v>0.9861230809670462</v>
       </c>
       <c r="M17">
-        <v>0.9935715180890022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9957357800470267</v>
+      </c>
+      <c r="N17">
+        <v>0.990474332478816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9597050421352199</v>
+        <v>0.962578829898176</v>
       </c>
       <c r="D18">
-        <v>0.9878030952415847</v>
+        <v>0.9900953122858167</v>
       </c>
       <c r="E18">
-        <v>0.9714084087853497</v>
+        <v>0.9738580285573561</v>
       </c>
       <c r="F18">
-        <v>0.9815684259740954</v>
+        <v>0.9837645061512841</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031420596421041</v>
+        <v>1.032633857476076</v>
       </c>
       <c r="J18">
-        <v>0.9883817992249972</v>
+        <v>0.9911341142037002</v>
       </c>
       <c r="K18">
-        <v>1.001835737654186</v>
+        <v>1.004087232174101</v>
       </c>
       <c r="L18">
-        <v>0.9857396220135178</v>
+        <v>0.9881437979105853</v>
       </c>
       <c r="M18">
-        <v>0.995713082194332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9978694964650233</v>
+      </c>
+      <c r="N18">
+        <v>0.9925416383305414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9605861624982989</v>
+        <v>0.9634565451278559</v>
       </c>
       <c r="D19">
-        <v>0.9884931307344778</v>
+        <v>0.9907830012427215</v>
       </c>
       <c r="E19">
-        <v>0.9721750763157301</v>
+        <v>0.9746219735339057</v>
       </c>
       <c r="F19">
-        <v>0.9823730798129702</v>
+        <v>0.9845662017579438</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031755529747003</v>
+        <v>1.03296764453389</v>
       </c>
       <c r="J19">
-        <v>0.98908166663428</v>
+        <v>0.9918317514251004</v>
       </c>
       <c r="K19">
-        <v>1.002447860595519</v>
+        <v>1.004697342422487</v>
       </c>
       <c r="L19">
-        <v>0.9864248047581609</v>
+        <v>0.9888266468170289</v>
       </c>
       <c r="M19">
-        <v>0.9964369558021509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9985907626239885</v>
+      </c>
+      <c r="N19">
+        <v>0.9932402662768158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9566144165565434</v>
+        <v>0.9595003859543331</v>
       </c>
       <c r="D20">
-        <v>0.9853835141222744</v>
+        <v>0.987684129979628</v>
       </c>
       <c r="E20">
-        <v>0.9687197498633695</v>
+        <v>0.9711791131474059</v>
       </c>
       <c r="F20">
-        <v>0.9787473923903808</v>
+        <v>0.9809540415567198</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030244677365895</v>
+        <v>1.031462048540432</v>
       </c>
       <c r="J20">
-        <v>0.9859266687025053</v>
+        <v>0.988686989848235</v>
       </c>
       <c r="K20">
-        <v>0.9996883399408623</v>
+        <v>1.001947052144577</v>
       </c>
       <c r="L20">
-        <v>0.9833358666746193</v>
+        <v>0.9857484086987517</v>
       </c>
       <c r="M20">
-        <v>0.9931745289160241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9953402678139608</v>
+      </c>
+      <c r="N20">
+        <v>0.9900910387778024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9431116561422599</v>
+        <v>0.9460554119523908</v>
       </c>
       <c r="D21">
-        <v>0.9748278820234606</v>
+        <v>0.977168411302847</v>
       </c>
       <c r="E21">
-        <v>0.956983221638085</v>
+        <v>0.9594888676982962</v>
       </c>
       <c r="F21">
-        <v>0.9664478941624558</v>
+        <v>0.9687044131643487</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025089106241416</v>
+        <v>1.026326142111072</v>
       </c>
       <c r="J21">
-        <v>0.9751966575545991</v>
+        <v>0.9779954726019994</v>
       </c>
       <c r="K21">
-        <v>0.9903023732724197</v>
+        <v>0.9925956415216751</v>
       </c>
       <c r="L21">
-        <v>0.9728281105191904</v>
+        <v>0.9752806468568592</v>
       </c>
       <c r="M21">
-        <v>0.9820940772266156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9843039782497621</v>
+      </c>
+      <c r="N21">
+        <v>0.9793843383507429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9341102713980453</v>
+        <v>0.9370970096828697</v>
       </c>
       <c r="D22">
-        <v>0.9678062017641633</v>
+        <v>0.970176473217549</v>
       </c>
       <c r="E22">
-        <v>0.9491693288662797</v>
+        <v>0.9517094452567698</v>
       </c>
       <c r="F22">
-        <v>0.9582720707833232</v>
+        <v>0.9605654368860177</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021638501692422</v>
+        <v>1.022890302348935</v>
       </c>
       <c r="J22">
-        <v>0.9680418794192114</v>
+        <v>0.9708697782931508</v>
       </c>
       <c r="K22">
-        <v>0.9840435881212021</v>
+        <v>0.9863628316273934</v>
       </c>
       <c r="L22">
-        <v>0.9658197925519419</v>
+        <v>0.9683023383859559</v>
       </c>
       <c r="M22">
-        <v>0.9747181050798851</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9769607792748488</v>
+      </c>
+      <c r="N22">
+        <v>0.972248524738647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9389348321050485</v>
+        <v>0.9418980641949138</v>
       </c>
       <c r="D23">
-        <v>0.9715681056906966</v>
+        <v>0.973922107404851</v>
       </c>
       <c r="E23">
-        <v>0.9533563509467291</v>
+        <v>0.9558776128327998</v>
       </c>
       <c r="F23">
-        <v>0.9626517841318323</v>
+        <v>0.9649250230597558</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023489153826192</v>
+        <v>1.024732867776072</v>
       </c>
       <c r="J23">
-        <v>0.9718767737836437</v>
+        <v>0.9746887256086751</v>
       </c>
       <c r="K23">
-        <v>0.9873982220862753</v>
+        <v>0.989703235565516</v>
       </c>
       <c r="L23">
-        <v>0.969576337403837</v>
+        <v>0.9720424481434191</v>
       </c>
       <c r="M23">
-        <v>0.9786703346301348</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9808950937021615</v>
+      </c>
+      <c r="N23">
+        <v>0.9760728953973988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.956832987755682</v>
+        <v>0.959718083372335</v>
       </c>
       <c r="D24">
-        <v>0.985554587466033</v>
+        <v>0.9878546006717117</v>
       </c>
       <c r="E24">
-        <v>0.968909867124948</v>
+        <v>0.9713685313274353</v>
       </c>
       <c r="F24">
-        <v>0.9789468272562982</v>
+        <v>0.9811527190222391</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030327894325509</v>
+        <v>1.031544970212264</v>
       </c>
       <c r="J24">
-        <v>0.9861003102645175</v>
+        <v>0.9888600557284659</v>
       </c>
       <c r="K24">
-        <v>0.9998402202950168</v>
+        <v>1.00209841390277</v>
       </c>
       <c r="L24">
-        <v>0.9835058816044535</v>
+        <v>0.9859178226782412</v>
       </c>
       <c r="M24">
-        <v>0.9933540303793031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9955191006019577</v>
+      </c>
+      <c r="N24">
+        <v>0.9902643504314343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9757342183938974</v>
+        <v>0.9785505287686092</v>
       </c>
       <c r="D25">
-        <v>1.000370687983054</v>
+        <v>1.002623385349117</v>
       </c>
       <c r="E25">
-        <v>0.9853646890006101</v>
+        <v>0.9877684333778858</v>
       </c>
       <c r="F25">
-        <v>0.9962334969612332</v>
+        <v>0.9983793879535419</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037489063121523</v>
+        <v>1.03868316454424</v>
       </c>
       <c r="J25">
-        <v>1.001106758042638</v>
+        <v>1.003821961473351</v>
       </c>
       <c r="K25">
-        <v>1.012963252222216</v>
+        <v>1.015181112687096</v>
       </c>
       <c r="L25">
-        <v>0.998194529062159</v>
+        <v>1.000559643472945</v>
       </c>
       <c r="M25">
-        <v>1.008890565791373</v>
+        <v>1.011002914038893</v>
+      </c>
+      <c r="N25">
+        <v>1.005247503798631</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9923837206513219</v>
+        <v>0.9925130874515645</v>
       </c>
       <c r="D2">
-        <v>1.013495469799255</v>
+        <v>1.014358553120672</v>
       </c>
       <c r="E2">
-        <v>0.9998292972673614</v>
+        <v>0.9995639543314215</v>
       </c>
       <c r="F2">
-        <v>1.011082212355829</v>
+        <v>1.014814538864486</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043872634571635</v>
+        <v>1.040253531915308</v>
       </c>
       <c r="J2">
-        <v>1.01479464444453</v>
+        <v>1.014920060282968</v>
       </c>
       <c r="K2">
-        <v>1.024769939269036</v>
+        <v>1.0256214101528</v>
       </c>
       <c r="L2">
-        <v>1.011291010762385</v>
+        <v>1.011029367307132</v>
       </c>
       <c r="M2">
-        <v>1.022389283577458</v>
+        <v>1.026071270813562</v>
       </c>
       <c r="N2">
-        <v>1.016235769238214</v>
+        <v>1.016361363181528</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001854186688281</v>
+        <v>0.9995537149814893</v>
       </c>
       <c r="D3">
-        <v>1.020947877808158</v>
+        <v>1.019864858932678</v>
       </c>
       <c r="E3">
-        <v>1.008091518913901</v>
+        <v>1.005391364196955</v>
       </c>
       <c r="F3">
-        <v>1.019802532453744</v>
+        <v>1.021302972736202</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047392252259985</v>
+        <v>1.042131336165936</v>
       </c>
       <c r="J3">
-        <v>1.022294432014692</v>
+        <v>1.020056553574659</v>
       </c>
       <c r="K3">
-        <v>1.031319562971681</v>
+        <v>1.030249721106321</v>
       </c>
       <c r="L3">
-        <v>1.018621903630714</v>
+        <v>1.015955723175167</v>
       </c>
       <c r="M3">
-        <v>1.030188154007501</v>
+        <v>1.031670345044205</v>
       </c>
       <c r="N3">
-        <v>1.023746207366963</v>
+        <v>1.021505150882856</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007747682056146</v>
+        <v>1.003979800065325</v>
       </c>
       <c r="D4">
-        <v>1.025588519425778</v>
+        <v>1.023328848743674</v>
       </c>
       <c r="E4">
-        <v>1.013234623494294</v>
+        <v>1.009061235635445</v>
       </c>
       <c r="F4">
-        <v>1.025238931180372</v>
+        <v>1.025388639956411</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049566567458316</v>
+        <v>1.043299226968943</v>
       </c>
       <c r="J4">
-        <v>1.026955256455426</v>
+        <v>1.02328224713477</v>
       </c>
       <c r="K4">
-        <v>1.035387619355809</v>
+        <v>1.033153637930873</v>
       </c>
       <c r="L4">
-        <v>1.023175899901878</v>
+        <v>1.01905151596141</v>
       </c>
       <c r="M4">
-        <v>1.035041996304775</v>
+        <v>1.035190006605353</v>
       </c>
       <c r="N4">
-        <v>1.028413650713007</v>
+        <v>1.024735425297815</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01017317620525</v>
+        <v>1.005811138844442</v>
       </c>
       <c r="D5">
-        <v>1.027498948175202</v>
+        <v>1.024762587287123</v>
       </c>
       <c r="E5">
-        <v>1.015351538716216</v>
+        <v>1.010581145495498</v>
       </c>
       <c r="F5">
-        <v>1.027478476512602</v>
+        <v>1.027080639507902</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05045750313836</v>
+        <v>1.04377936683453</v>
       </c>
       <c r="J5">
-        <v>1.028871841690937</v>
+        <v>1.024616037222819</v>
       </c>
       <c r="K5">
-        <v>1.037059864943919</v>
+        <v>1.034353715426914</v>
       </c>
       <c r="L5">
-        <v>1.025048103421109</v>
+        <v>1.020332080722405</v>
       </c>
       <c r="M5">
-        <v>1.037039618568951</v>
+        <v>1.036646161892995</v>
       </c>
       <c r="N5">
-        <v>1.030332957719388</v>
+        <v>1.026071109520778</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010577478749646</v>
+        <v>1.006116951123852</v>
       </c>
       <c r="D6">
-        <v>1.027817423090523</v>
+        <v>1.025002029851148</v>
       </c>
       <c r="E6">
-        <v>1.015704416143351</v>
+        <v>1.010835036231464</v>
       </c>
       <c r="F6">
-        <v>1.027851906864394</v>
+        <v>1.027363269918732</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050605779433022</v>
+        <v>1.043859361179255</v>
       </c>
       <c r="J6">
-        <v>1.029191218570782</v>
+        <v>1.024838711335638</v>
       </c>
       <c r="K6">
-        <v>1.037338489809975</v>
+        <v>1.034554026757514</v>
       </c>
       <c r="L6">
-        <v>1.025360057835099</v>
+        <v>1.020545897390228</v>
       </c>
       <c r="M6">
-        <v>1.03737259603163</v>
+        <v>1.036889311925729</v>
       </c>
       <c r="N6">
-        <v>1.030652788151035</v>
+        <v>1.026294099856378</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007780291495584</v>
+        <v>1.004004383882754</v>
       </c>
       <c r="D7">
-        <v>1.02561420211136</v>
+        <v>1.023348093448607</v>
       </c>
       <c r="E7">
-        <v>1.013263083417704</v>
+        <v>1.009081633173143</v>
       </c>
       <c r="F7">
-        <v>1.025269032231681</v>
+        <v>1.025411347432603</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049578561226114</v>
+        <v>1.043305684648294</v>
       </c>
       <c r="J7">
-        <v>1.02698103033287</v>
+        <v>1.023300155425201</v>
       </c>
       <c r="K7">
-        <v>1.035410109776836</v>
+        <v>1.033169753566715</v>
       </c>
       <c r="L7">
-        <v>1.023201078743766</v>
+        <v>1.019068707697164</v>
       </c>
       <c r="M7">
-        <v>1.035068853406846</v>
+        <v>1.035209554655389</v>
       </c>
       <c r="N7">
-        <v>1.028439461192313</v>
+        <v>1.024753359020074</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9956354373895798</v>
+        <v>0.9949203898997817</v>
       </c>
       <c r="D8">
-        <v>1.016053537213465</v>
+        <v>1.016240657437536</v>
       </c>
       <c r="E8">
-        <v>1.002665766069836</v>
+        <v>1.00155501482099</v>
       </c>
       <c r="F8">
-        <v>1.014074194154909</v>
+        <v>1.017031557062117</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045084439230748</v>
+        <v>1.040898196070362</v>
       </c>
       <c r="J8">
-        <v>1.017371008345963</v>
+        <v>1.016676974000036</v>
       </c>
       <c r="K8">
-        <v>1.027020356778863</v>
+        <v>1.027205042227769</v>
       </c>
       <c r="L8">
-        <v>1.0138097485377</v>
+        <v>1.012713963563601</v>
       </c>
       <c r="M8">
-        <v>1.02506683751443</v>
+        <v>1.02798566319544</v>
       </c>
       <c r="N8">
-        <v>1.0188157918719</v>
+        <v>1.018120771917595</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9722295313147247</v>
+        <v>0.977838029744846</v>
       </c>
       <c r="D9">
-        <v>0.9976617644576607</v>
+        <v>1.002900853823047</v>
       </c>
       <c r="E9">
-        <v>0.9822610521935702</v>
+        <v>0.9874584641663421</v>
       </c>
       <c r="F9">
-        <v>0.9925886901484865</v>
+        <v>1.00133305691649</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036295625626987</v>
+        <v>1.036272239103881</v>
       </c>
       <c r="J9">
-        <v>0.9988025438661288</v>
+        <v>1.004198411032856</v>
       </c>
       <c r="K9">
-        <v>1.010792892160438</v>
+        <v>1.015947041373477</v>
       </c>
       <c r="L9">
-        <v>0.9956486409541658</v>
+        <v>1.00075835002677</v>
       </c>
       <c r="M9">
-        <v>1.005803166146664</v>
+        <v>1.014404543163663</v>
       </c>
       <c r="N9">
-        <v>1.000220958042672</v>
+        <v>1.00562448795969</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9549287761218922</v>
+        <v>0.9655983563594932</v>
       </c>
       <c r="D10">
-        <v>0.9841057243619672</v>
+        <v>0.9933693031485893</v>
       </c>
       <c r="E10">
-        <v>0.9672023045107152</v>
+        <v>0.9774046033008557</v>
       </c>
       <c r="F10">
-        <v>0.9767842969924054</v>
+        <v>0.9901337956464572</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029718857507606</v>
+        <v>1.032895414636</v>
       </c>
       <c r="J10">
-        <v>0.9850522201232879</v>
+        <v>0.9952466399793919</v>
       </c>
       <c r="K10">
-        <v>0.9987680098812044</v>
+        <v>1.007859317871547</v>
       </c>
       <c r="L10">
-        <v>0.982190104550682</v>
+        <v>0.9921941712643394</v>
       </c>
       <c r="M10">
-        <v>0.9915857628036087</v>
+        <v>1.004683502061691</v>
       </c>
       <c r="N10">
-        <v>0.9864511072629318</v>
+        <v>0.9966600043645479</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9469353186792585</v>
+        <v>0.960063025346665</v>
       </c>
       <c r="D11">
-        <v>0.9778558268618401</v>
+        <v>0.9890673241200878</v>
       </c>
       <c r="E11">
-        <v>0.9602534161385828</v>
+        <v>0.972870750966866</v>
       </c>
       <c r="F11">
-        <v>0.9695048348532543</v>
+        <v>0.9850827187805928</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026663072817174</v>
+        <v>1.031354704899399</v>
       </c>
       <c r="J11">
-        <v>0.9786953164334514</v>
+        <v>0.9911970676485222</v>
       </c>
       <c r="K11">
-        <v>0.9932077915522362</v>
+        <v>1.004198402341133</v>
       </c>
       <c r="L11">
-        <v>0.9759659466501033</v>
+        <v>0.9883230848352262</v>
       </c>
       <c r="M11">
-        <v>0.9850257077115138</v>
+        <v>1.000291544949367</v>
       </c>
       <c r="N11">
-        <v>0.9800851760407087</v>
+        <v>0.9926046811764758</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9438801195017267</v>
+        <v>0.9579682960648447</v>
       </c>
       <c r="D12">
-        <v>0.9754694878842762</v>
+        <v>0.9874408466554494</v>
       </c>
       <c r="E12">
-        <v>0.9575990939852157</v>
+        <v>0.971157141114645</v>
       </c>
       <c r="F12">
-        <v>0.9667263860635656</v>
+        <v>0.9831735134607951</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025492749965281</v>
+        <v>1.030769735686129</v>
       </c>
       <c r="J12">
-        <v>0.9762652766939788</v>
+        <v>0.9896645472770347</v>
       </c>
       <c r="K12">
-        <v>0.9910822428404636</v>
+        <v>1.002812681613785</v>
       </c>
       <c r="L12">
-        <v>0.9735863522372089</v>
+        <v>0.9868586024788705</v>
       </c>
       <c r="M12">
-        <v>0.9825200795820898</v>
+        <v>0.9986303419181802</v>
       </c>
       <c r="N12">
-        <v>0.9776516853660766</v>
+        <v>0.9910699844502782</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9445395601395581</v>
+        <v>0.9584194294038819</v>
       </c>
       <c r="D13">
-        <v>0.9759844420881595</v>
+        <v>0.9877910622937729</v>
       </c>
       <c r="E13">
-        <v>0.9581719291958047</v>
+        <v>0.9715260949621833</v>
       </c>
       <c r="F13">
-        <v>0.9673259105729961</v>
+        <v>0.9835845853544862</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025745457684401</v>
+        <v>1.030895802796463</v>
       </c>
       <c r="J13">
-        <v>0.9767897933552018</v>
+        <v>0.9899945997350985</v>
       </c>
       <c r="K13">
-        <v>0.9915410368940596</v>
+        <v>1.003111130406036</v>
       </c>
       <c r="L13">
-        <v>0.9740999934460631</v>
+        <v>0.9871739793535956</v>
       </c>
       <c r="M13">
-        <v>0.9830608158042204</v>
+        <v>0.9989880672775643</v>
       </c>
       <c r="N13">
-        <v>0.9781769469011214</v>
+        <v>0.99140050562069</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9466846002433047</v>
+        <v>0.9598906835196243</v>
       </c>
       <c r="D14">
-        <v>0.9776599447226582</v>
+        <v>0.9889334751663094</v>
       </c>
       <c r="E14">
-        <v>0.9600355598142832</v>
+        <v>0.9727297210281173</v>
       </c>
       <c r="F14">
-        <v>0.9692767466011188</v>
+        <v>0.984925593502055</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02656707920055</v>
+        <v>1.031306615349353</v>
       </c>
       <c r="J14">
-        <v>0.9784959060380457</v>
+        <v>0.9910709811227033</v>
       </c>
       <c r="K14">
-        <v>0.9930333683967304</v>
+        <v>1.004084399054074</v>
       </c>
       <c r="L14">
-        <v>0.9757706817085016</v>
+        <v>0.9882025859771467</v>
       </c>
       <c r="M14">
-        <v>0.9848200517042864</v>
+        <v>1.000154852869671</v>
       </c>
       <c r="N14">
-        <v>0.9798854824596688</v>
+        <v>0.9924784155933278</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.947994469133311</v>
+        <v>0.9607919434813595</v>
       </c>
       <c r="D15">
-        <v>0.9786834254202533</v>
+        <v>0.9896334999902041</v>
       </c>
       <c r="E15">
-        <v>0.9611738098912624</v>
+        <v>0.9734673235217139</v>
       </c>
       <c r="F15">
-        <v>0.9704685437774252</v>
+        <v>0.9857473721313673</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027068499843203</v>
+        <v>1.031558021880205</v>
       </c>
       <c r="J15">
-        <v>0.9795377052435434</v>
+        <v>0.9917303484080849</v>
       </c>
       <c r="K15">
-        <v>0.9939446226502603</v>
+        <v>1.004680566031247</v>
       </c>
       <c r="L15">
-        <v>0.9767908114689942</v>
+        <v>0.9888327527580263</v>
       </c>
       <c r="M15">
-        <v>0.9858945651971824</v>
+        <v>1.000869718152188</v>
       </c>
       <c r="N15">
-        <v>0.9809287611395346</v>
+        <v>0.9931387192558853</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9554478369991111</v>
+        <v>0.9659604859102245</v>
       </c>
       <c r="D16">
-        <v>0.9845118753574285</v>
+        <v>0.993650941405043</v>
       </c>
       <c r="E16">
-        <v>0.9676537394541911</v>
+        <v>0.9777014978621418</v>
       </c>
       <c r="F16">
-        <v>0.9772574940812091</v>
+        <v>0.9904645455429739</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029916952441292</v>
+        <v>1.032995939060672</v>
       </c>
       <c r="J16">
-        <v>0.9854649491733453</v>
+        <v>0.9955115553633176</v>
       </c>
       <c r="K16">
-        <v>0.9991290002175942</v>
+        <v>1.008098766204139</v>
       </c>
       <c r="L16">
-        <v>0.982594172678245</v>
+        <v>0.9924474771309703</v>
       </c>
       <c r="M16">
-        <v>0.9920119556423233</v>
+        <v>1.00497093555947</v>
       </c>
       <c r="N16">
-        <v>0.9868644224355813</v>
+        <v>0.996925295958705</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9599818458894178</v>
+        <v>0.9691373411156537</v>
       </c>
       <c r="D17">
-        <v>0.9880611514858332</v>
+        <v>0.9961226671837166</v>
       </c>
       <c r="E17">
-        <v>0.9715980360200946</v>
+        <v>0.9803075483578425</v>
       </c>
       <c r="F17">
-        <v>0.9813934510973052</v>
+        <v>0.9933676887123626</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031645427159408</v>
+        <v>1.03387629263479</v>
       </c>
       <c r="J17">
-        <v>0.9890697400001311</v>
+        <v>0.9978354608719546</v>
       </c>
       <c r="K17">
-        <v>1.002281801053488</v>
+        <v>1.010199023356477</v>
       </c>
       <c r="L17">
-        <v>0.9861230809670462</v>
+        <v>0.9946698983273483</v>
       </c>
       <c r="M17">
-        <v>0.9957357800470267</v>
+        <v>1.00749301436348</v>
       </c>
       <c r="N17">
-        <v>0.990474332478816</v>
+        <v>0.99925250167972</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.962578829898176</v>
+        <v>0.9709678698612523</v>
       </c>
       <c r="D18">
-        <v>0.9900953122858167</v>
+        <v>0.9975476893169648</v>
       </c>
       <c r="E18">
-        <v>0.9738580285573561</v>
+        <v>0.981810379803189</v>
       </c>
       <c r="F18">
-        <v>0.9837645061512841</v>
+        <v>0.9950417788385316</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032633857476076</v>
+        <v>1.034382276795401</v>
       </c>
       <c r="J18">
-        <v>0.9911341142037002</v>
+        <v>0.9991743933254096</v>
       </c>
       <c r="K18">
-        <v>1.004087232174101</v>
+        <v>1.011408887526206</v>
       </c>
       <c r="L18">
-        <v>0.9881437979105853</v>
+        <v>0.9959506545079269</v>
       </c>
       <c r="M18">
-        <v>0.9978694964650233</v>
+        <v>1.008946650030897</v>
       </c>
       <c r="N18">
-        <v>0.9925416383305414</v>
+        <v>1.000593335570837</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9634565451278559</v>
+        <v>0.9715883134889065</v>
       </c>
       <c r="D19">
-        <v>0.9907830012427215</v>
+        <v>0.9980308181978309</v>
       </c>
       <c r="E19">
-        <v>0.9746219735339057</v>
+        <v>0.982319952191362</v>
       </c>
       <c r="F19">
-        <v>0.9845662017579438</v>
+        <v>0.9956094096185004</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03296764453389</v>
+        <v>1.034553555417429</v>
       </c>
       <c r="J19">
-        <v>0.9918317514251004</v>
+        <v>0.9996281901368852</v>
       </c>
       <c r="K19">
-        <v>1.004697342422487</v>
+        <v>1.011818902618196</v>
       </c>
       <c r="L19">
-        <v>0.9888266468170289</v>
+        <v>0.996384783405641</v>
       </c>
       <c r="M19">
-        <v>0.9985907626239885</v>
+        <v>1.009439410251961</v>
       </c>
       <c r="N19">
-        <v>0.9932402662768158</v>
+        <v>1.001047776825836</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9595003859543331</v>
+        <v>0.9687988419576034</v>
       </c>
       <c r="D20">
-        <v>0.987684129979628</v>
+        <v>0.9958592166772705</v>
       </c>
       <c r="E20">
-        <v>0.9711791131474059</v>
+        <v>0.9800297429347062</v>
       </c>
       <c r="F20">
-        <v>0.9809540415567198</v>
+        <v>0.9930582200024375</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031462048540432</v>
+        <v>1.033782621991947</v>
       </c>
       <c r="J20">
-        <v>0.988686989848235</v>
+        <v>0.9975878564945588</v>
       </c>
       <c r="K20">
-        <v>1.001947052144577</v>
+        <v>1.009975269652249</v>
       </c>
       <c r="L20">
-        <v>0.9857484086987517</v>
+        <v>0.9944330760290145</v>
       </c>
       <c r="M20">
-        <v>0.9953402678139608</v>
+        <v>1.007224240473064</v>
       </c>
       <c r="N20">
-        <v>0.9900910387778024</v>
+        <v>0.9990045456757077</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9460554119523908</v>
+        <v>0.95945853155414</v>
       </c>
       <c r="D21">
-        <v>0.977168411302847</v>
+        <v>0.9885978703275859</v>
       </c>
       <c r="E21">
-        <v>0.9594888676982962</v>
+        <v>0.9723761194294618</v>
       </c>
       <c r="F21">
-        <v>0.9687044131643487</v>
+        <v>0.9845316346694568</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026326142111072</v>
+        <v>1.031185998994957</v>
       </c>
       <c r="J21">
-        <v>0.9779954726019994</v>
+        <v>0.990754815370565</v>
       </c>
       <c r="K21">
-        <v>0.9925956415216751</v>
+        <v>1.003798528002065</v>
       </c>
       <c r="L21">
-        <v>0.9752806468568592</v>
+        <v>0.9879004394460847</v>
       </c>
       <c r="M21">
-        <v>0.9843039782497621</v>
+        <v>0.9998121078414123</v>
       </c>
       <c r="N21">
-        <v>0.9793843383507429</v>
+        <v>0.9921618008495567</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9370970096828697</v>
+        <v>0.9533602811719062</v>
       </c>
       <c r="D22">
-        <v>0.970176473217549</v>
+        <v>0.983865961081719</v>
       </c>
       <c r="E22">
-        <v>0.9517094452567698</v>
+        <v>0.9673916715773225</v>
       </c>
       <c r="F22">
-        <v>0.9605654368860177</v>
+        <v>0.9789780489315238</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022890302348935</v>
+        <v>1.029479509633363</v>
       </c>
       <c r="J22">
-        <v>0.9708697782931508</v>
+        <v>0.9862933632038781</v>
       </c>
       <c r="K22">
-        <v>0.9863628316273934</v>
+        <v>0.9997639582366864</v>
       </c>
       <c r="L22">
-        <v>0.9683023383859559</v>
+        <v>0.9836380161633664</v>
       </c>
       <c r="M22">
-        <v>0.9769607792748488</v>
+        <v>0.9949777831422323</v>
       </c>
       <c r="N22">
-        <v>0.972248524738647</v>
+        <v>0.9876940129090576</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9418980641949138</v>
+        <v>0.9566156759044832</v>
       </c>
       <c r="D23">
-        <v>0.973922107404851</v>
+        <v>0.9863910456896413</v>
       </c>
       <c r="E23">
-        <v>0.9558776128327998</v>
+        <v>0.9700512450691362</v>
       </c>
       <c r="F23">
-        <v>0.9649250230597558</v>
+        <v>0.9819413579550226</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024732867776072</v>
+        <v>1.030391480451956</v>
       </c>
       <c r="J23">
-        <v>0.9746887256086751</v>
+        <v>0.988674964800478</v>
       </c>
       <c r="K23">
-        <v>0.989703235565516</v>
+        <v>1.001917817597638</v>
       </c>
       <c r="L23">
-        <v>0.9720424481434191</v>
+        <v>0.98591309485895</v>
       </c>
       <c r="M23">
-        <v>0.9808950937021615</v>
+        <v>0.9975579231816309</v>
       </c>
       <c r="N23">
-        <v>0.9760728953973988</v>
+        <v>0.9900789966530981</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.959718083372335</v>
+        <v>0.9689518643744098</v>
       </c>
       <c r="D24">
-        <v>0.9878546006717117</v>
+        <v>0.9959783100411088</v>
       </c>
       <c r="E24">
-        <v>0.9713685313274353</v>
+        <v>0.980155324325493</v>
       </c>
       <c r="F24">
-        <v>0.9811527190222391</v>
+        <v>0.9931981149234439</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031544970212264</v>
+        <v>1.033824970869693</v>
       </c>
       <c r="J24">
-        <v>0.9888600557284659</v>
+        <v>0.9976997892684636</v>
       </c>
       <c r="K24">
-        <v>1.00209841390277</v>
+        <v>1.010076421081552</v>
       </c>
       <c r="L24">
-        <v>0.9859178226782412</v>
+        <v>0.9945401337105343</v>
       </c>
       <c r="M24">
-        <v>0.9955191006019577</v>
+        <v>1.007345741574472</v>
       </c>
       <c r="N24">
-        <v>0.9902643504314343</v>
+        <v>0.9991166374069901</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9785505287686092</v>
+        <v>0.9823940196414965</v>
       </c>
       <c r="D25">
-        <v>1.002623385349117</v>
+        <v>1.006454846941556</v>
       </c>
       <c r="E25">
-        <v>0.9877684333778858</v>
+        <v>0.9912107806871393</v>
       </c>
       <c r="F25">
-        <v>0.9983793879535419</v>
+        <v>1.005512273562431</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03868316454424</v>
+        <v>1.037516991356268</v>
       </c>
       <c r="J25">
-        <v>1.003821961473351</v>
+        <v>1.007528777863289</v>
       </c>
       <c r="K25">
-        <v>1.015181112687096</v>
+        <v>1.018953779354128</v>
       </c>
       <c r="L25">
-        <v>1.000559643472945</v>
+        <v>1.003947087682478</v>
       </c>
       <c r="M25">
-        <v>1.011002914038893</v>
+        <v>1.018025617034175</v>
       </c>
       <c r="N25">
-        <v>1.005247503798631</v>
+        <v>1.008959584293021</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_bus/vm_pu.xlsx
@@ -421,37 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9925130874515645</v>
+        <v>0.9826720611891093</v>
       </c>
       <c r="D2">
-        <v>1.014358553120672</v>
+        <v>1.003600495791109</v>
       </c>
       <c r="E2">
-        <v>0.9995639543314215</v>
-      </c>
-      <c r="F2">
-        <v>1.014814538864486</v>
+        <v>0.9912662217249147</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040253531915308</v>
+        <v>1.036103218267193</v>
       </c>
       <c r="J2">
-        <v>1.014920060282968</v>
+        <v>1.005383695405531</v>
       </c>
       <c r="K2">
-        <v>1.0256214101528</v>
+        <v>1.015009896862789</v>
       </c>
       <c r="L2">
-        <v>1.011029367307132</v>
-      </c>
-      <c r="M2">
-        <v>1.026071270813562</v>
+        <v>1.002848588053008</v>
       </c>
       <c r="N2">
-        <v>1.016361363181528</v>
+        <v>1.006811455572129</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9995537149814893</v>
+        <v>0.9892895213028954</v>
       </c>
       <c r="D3">
-        <v>1.019864858932678</v>
+        <v>1.008243218948642</v>
       </c>
       <c r="E3">
-        <v>1.005391364196955</v>
-      </c>
-      <c r="F3">
-        <v>1.021302972736202</v>
+        <v>0.9966940940737369</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042131336165936</v>
+        <v>1.037589546683416</v>
       </c>
       <c r="J3">
-        <v>1.020056553574659</v>
+        <v>1.010076485202041</v>
       </c>
       <c r="K3">
-        <v>1.030249721106321</v>
+        <v>1.018771701656131</v>
       </c>
       <c r="L3">
-        <v>1.015955723175167</v>
-      </c>
-      <c r="M3">
-        <v>1.031670345044205</v>
+        <v>1.007369450078811</v>
       </c>
       <c r="N3">
-        <v>1.021505150882856</v>
+        <v>1.01151090966842</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003979800065325</v>
+        <v>0.9934523685585075</v>
       </c>
       <c r="D4">
-        <v>1.023328848743674</v>
+        <v>1.01116634317028</v>
       </c>
       <c r="E4">
-        <v>1.009061235635445</v>
-      </c>
-      <c r="F4">
-        <v>1.025388639956411</v>
+        <v>1.000115473446877</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043299226968943</v>
+        <v>1.038512088262917</v>
       </c>
       <c r="J4">
-        <v>1.02328224713477</v>
+        <v>1.013025059444653</v>
       </c>
       <c r="K4">
-        <v>1.033153637930873</v>
+        <v>1.021131842749456</v>
       </c>
       <c r="L4">
-        <v>1.01905151596141</v>
-      </c>
-      <c r="M4">
-        <v>1.035190006605353</v>
+        <v>1.010212505005629</v>
       </c>
       <c r="N4">
-        <v>1.024735425297815</v>
+        <v>1.014463671224663</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005811138844442</v>
+        <v>0.9951753592155167</v>
       </c>
       <c r="D5">
-        <v>1.024762587287123</v>
+        <v>1.012376704642887</v>
       </c>
       <c r="E5">
-        <v>1.010581145495498</v>
-      </c>
-      <c r="F5">
-        <v>1.027080639507902</v>
+        <v>1.001533134146751</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04377936683453</v>
+        <v>1.038890869792891</v>
       </c>
       <c r="J5">
-        <v>1.024616037222819</v>
+        <v>1.014244553342463</v>
       </c>
       <c r="K5">
-        <v>1.034353715426914</v>
+        <v>1.022107100808789</v>
       </c>
       <c r="L5">
-        <v>1.020332080722405</v>
-      </c>
-      <c r="M5">
-        <v>1.036646161892995</v>
+        <v>1.011388954092452</v>
       </c>
       <c r="N5">
-        <v>1.026071109520778</v>
+        <v>1.015684896943686</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006116951123852</v>
+        <v>0.995463109376716</v>
       </c>
       <c r="D6">
-        <v>1.025002029851148</v>
+        <v>1.012578867990712</v>
       </c>
       <c r="E6">
-        <v>1.010835036231464</v>
-      </c>
-      <c r="F6">
-        <v>1.027363269918732</v>
+        <v>1.001769981737139</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043859361179255</v>
+        <v>1.038953947099809</v>
       </c>
       <c r="J6">
-        <v>1.024838711335638</v>
+        <v>1.01444816083084</v>
       </c>
       <c r="K6">
-        <v>1.034554026757514</v>
+        <v>1.022269878582043</v>
       </c>
       <c r="L6">
-        <v>1.020545897390228</v>
-      </c>
-      <c r="M6">
-        <v>1.036889311925729</v>
+        <v>1.011585409761587</v>
       </c>
       <c r="N6">
-        <v>1.026294099856378</v>
+        <v>1.01588879357805</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004004383882754</v>
+        <v>0.9934754957871886</v>
       </c>
       <c r="D7">
-        <v>1.023348093448607</v>
+        <v>1.011182587735399</v>
       </c>
       <c r="E7">
-        <v>1.009081633173143</v>
-      </c>
-      <c r="F7">
-        <v>1.025411347432603</v>
+        <v>1.000134496247152</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043305684648294</v>
+        <v>1.038517184718051</v>
       </c>
       <c r="J7">
-        <v>1.023300155425201</v>
+        <v>1.013041432073125</v>
       </c>
       <c r="K7">
-        <v>1.033169753566715</v>
+        <v>1.021144939801831</v>
       </c>
       <c r="L7">
-        <v>1.019068707697164</v>
-      </c>
-      <c r="M7">
-        <v>1.035209554655389</v>
+        <v>1.010228297369094</v>
       </c>
       <c r="N7">
-        <v>1.024753359020074</v>
+        <v>1.014480067104146</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9949203898997817</v>
+        <v>0.984934024443085</v>
       </c>
       <c r="D8">
-        <v>1.016240657437536</v>
+        <v>1.005186852974551</v>
       </c>
       <c r="E8">
-        <v>1.00155501482099</v>
-      </c>
-      <c r="F8">
-        <v>1.017031557062117</v>
+        <v>0.9931200610545622</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040898196070362</v>
+        <v>1.036613857410793</v>
       </c>
       <c r="J8">
-        <v>1.016676974000036</v>
+        <v>1.00698847183823</v>
       </c>
       <c r="K8">
-        <v>1.027205042227769</v>
+        <v>1.016297020456693</v>
       </c>
       <c r="L8">
-        <v>1.012713963563601</v>
-      </c>
-      <c r="M8">
-        <v>1.02798566319544</v>
+        <v>1.004394039097035</v>
       </c>
       <c r="N8">
-        <v>1.018120771917595</v>
+        <v>1.008418510971433</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.977838029744846</v>
+        <v>0.9688997300764745</v>
       </c>
       <c r="D9">
-        <v>1.002900853823047</v>
+        <v>0.9939578694412554</v>
       </c>
       <c r="E9">
-        <v>0.9874584641663421</v>
-      </c>
-      <c r="F9">
-        <v>1.00133305691649</v>
+        <v>0.9800123362280058</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036272239103881</v>
+        <v>1.032943258689779</v>
       </c>
       <c r="J9">
-        <v>1.004198411032856</v>
+        <v>0.9956006285076866</v>
       </c>
       <c r="K9">
-        <v>1.015947041373477</v>
+        <v>1.007149742606953</v>
       </c>
       <c r="L9">
-        <v>1.00075835002677</v>
-      </c>
-      <c r="M9">
-        <v>1.014404543163663</v>
+        <v>0.9934382430507025</v>
       </c>
       <c r="N9">
-        <v>1.00562448795969</v>
+        <v>0.9970144955971556</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9655983563594932</v>
+        <v>0.9574386652466796</v>
       </c>
       <c r="D10">
-        <v>0.9933693031485893</v>
+        <v>0.9859587622558768</v>
       </c>
       <c r="E10">
-        <v>0.9774046033008557</v>
-      </c>
-      <c r="F10">
-        <v>0.9901337956464572</v>
+        <v>0.9706909564897748</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032895414636</v>
+        <v>1.030257846520625</v>
       </c>
       <c r="J10">
-        <v>0.9952466399793919</v>
+        <v>0.9874489682967075</v>
       </c>
       <c r="K10">
-        <v>1.007859317871547</v>
+        <v>1.000586249470877</v>
       </c>
       <c r="L10">
-        <v>0.9921941712643394</v>
-      </c>
-      <c r="M10">
-        <v>1.004683502061691</v>
+        <v>0.9856103565801482</v>
       </c>
       <c r="N10">
-        <v>0.9966600043645479</v>
+        <v>0.9888512590936686</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.960063025346665</v>
+        <v>0.9522643774546081</v>
       </c>
       <c r="D11">
-        <v>0.9890673241200878</v>
+        <v>0.9823562078030569</v>
       </c>
       <c r="E11">
-        <v>0.972870750966866</v>
-      </c>
-      <c r="F11">
-        <v>0.9850827187805928</v>
+        <v>0.9664957976925534</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031354704899399</v>
+        <v>1.029031967269522</v>
       </c>
       <c r="J11">
-        <v>0.9911970676485222</v>
+        <v>0.9837672756505382</v>
       </c>
       <c r="K11">
-        <v>1.004198402341133</v>
+        <v>0.997618711301703</v>
       </c>
       <c r="L11">
-        <v>0.9883230848352262</v>
-      </c>
-      <c r="M11">
-        <v>1.000291544949367</v>
+        <v>0.9820784760372184</v>
       </c>
       <c r="N11">
-        <v>0.9926046811764758</v>
+        <v>0.9851643380216457</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9579682960648447</v>
+        <v>0.9503078546169198</v>
       </c>
       <c r="D12">
-        <v>0.9874408466554494</v>
+        <v>0.9809955320323011</v>
       </c>
       <c r="E12">
-        <v>0.971157141114645</v>
-      </c>
-      <c r="F12">
-        <v>0.9831735134607951</v>
+        <v>0.9649116492124885</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030769735686129</v>
+        <v>1.028566510816241</v>
       </c>
       <c r="J12">
-        <v>0.9896645472770347</v>
+        <v>0.9823750390412578</v>
       </c>
       <c r="K12">
-        <v>1.002812681613785</v>
+        <v>0.9964961150959577</v>
       </c>
       <c r="L12">
-        <v>0.9868586024788705</v>
-      </c>
-      <c r="M12">
-        <v>0.9986303419181802</v>
+        <v>0.9807434424444728</v>
       </c>
       <c r="N12">
-        <v>0.9910699844502782</v>
+        <v>0.9837701242766884</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9584194294038819</v>
+        <v>0.9507291476258414</v>
       </c>
       <c r="D13">
-        <v>0.9877910622937729</v>
+        <v>0.9812884497379295</v>
       </c>
       <c r="E13">
-        <v>0.9715260949621833</v>
-      </c>
-      <c r="F13">
-        <v>0.9835845853544862</v>
+        <v>0.9652526602271938</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030895802796463</v>
+        <v>1.028666821297325</v>
       </c>
       <c r="J13">
-        <v>0.9899945997350985</v>
+        <v>0.9826748281511546</v>
       </c>
       <c r="K13">
-        <v>1.003111130406036</v>
+        <v>0.9967378607295441</v>
       </c>
       <c r="L13">
-        <v>0.9871739793535956</v>
-      </c>
-      <c r="M13">
-        <v>0.9989880672775643</v>
+        <v>0.981030888952116</v>
       </c>
       <c r="N13">
-        <v>0.99140050562069</v>
+        <v>0.9840703391215075</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9598906835196243</v>
+        <v>0.9521033729555037</v>
       </c>
       <c r="D14">
-        <v>0.9889334751663094</v>
+        <v>0.9822442037371916</v>
       </c>
       <c r="E14">
-        <v>0.9727297210281173</v>
-      </c>
-      <c r="F14">
-        <v>0.984925593502055</v>
+        <v>0.9663653918207539</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031306615349353</v>
+        <v>1.028993702666349</v>
       </c>
       <c r="J14">
-        <v>0.9910709811227033</v>
+        <v>0.983652708182541</v>
       </c>
       <c r="K14">
-        <v>1.004084399054074</v>
+        <v>0.9975263407584003</v>
       </c>
       <c r="L14">
-        <v>0.9882025859771467</v>
-      </c>
-      <c r="M14">
-        <v>1.000154852869671</v>
+        <v>0.9819686045495328</v>
       </c>
       <c r="N14">
-        <v>0.9924784155933278</v>
+        <v>0.9850496078547029</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9607919434813595</v>
+        <v>0.9529454100727767</v>
       </c>
       <c r="D15">
-        <v>0.9896334999902041</v>
+        <v>0.9828300374182469</v>
       </c>
       <c r="E15">
-        <v>0.9734673235217139</v>
-      </c>
-      <c r="F15">
-        <v>0.9857473721313673</v>
+        <v>0.9670474893776373</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031558021880205</v>
+        <v>1.029193745154847</v>
       </c>
       <c r="J15">
-        <v>0.9917303484080849</v>
+        <v>0.9842518810640463</v>
       </c>
       <c r="K15">
-        <v>1.004680566031247</v>
+        <v>0.9980094099612318</v>
       </c>
       <c r="L15">
-        <v>0.9888327527580263</v>
-      </c>
-      <c r="M15">
-        <v>1.000869718152188</v>
+        <v>0.9825432405709221</v>
       </c>
       <c r="N15">
-        <v>0.9931387192558853</v>
+        <v>0.9856496316304257</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9659604859102245</v>
+        <v>0.9577773785928546</v>
       </c>
       <c r="D16">
-        <v>0.993650941405043</v>
+        <v>0.9861947882586278</v>
       </c>
       <c r="E16">
-        <v>0.9777014978621418</v>
-      </c>
-      <c r="F16">
-        <v>0.9904645455429739</v>
+        <v>0.9709658610780088</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032995939060672</v>
+        <v>1.030337822665351</v>
       </c>
       <c r="J16">
-        <v>0.9955115553633176</v>
+        <v>0.9876899543546155</v>
       </c>
       <c r="K16">
-        <v>1.008098766204139</v>
+        <v>1.000780429758778</v>
       </c>
       <c r="L16">
-        <v>0.9924474771309703</v>
-      </c>
-      <c r="M16">
-        <v>1.00497093555947</v>
+        <v>0.9858416119003445</v>
       </c>
       <c r="N16">
-        <v>0.996925295958705</v>
+        <v>0.9890925873794202</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9691373411156537</v>
+        <v>0.9607498420147543</v>
       </c>
       <c r="D17">
-        <v>0.9961226671837166</v>
+        <v>0.9882671089785942</v>
       </c>
       <c r="E17">
-        <v>0.9803075483578425</v>
-      </c>
-      <c r="F17">
-        <v>0.9933676887123626</v>
+        <v>0.9733798572093414</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03387629263479</v>
+        <v>1.031038159430366</v>
       </c>
       <c r="J17">
-        <v>0.9978354608719546</v>
+        <v>0.9898046329356993</v>
       </c>
       <c r="K17">
-        <v>1.010199023356477</v>
+        <v>1.002484034002942</v>
       </c>
       <c r="L17">
-        <v>0.9946698983273483</v>
-      </c>
-      <c r="M17">
-        <v>1.00749301436348</v>
+        <v>0.9878713080462294</v>
       </c>
       <c r="N17">
-        <v>0.99925250167972</v>
+        <v>0.9912102690466463</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9709678698612523</v>
+        <v>0.9624634201068544</v>
       </c>
       <c r="D18">
-        <v>0.9975476893169648</v>
+        <v>0.9894625795523464</v>
       </c>
       <c r="E18">
-        <v>0.981810379803189</v>
-      </c>
-      <c r="F18">
-        <v>0.9950417788385316</v>
+        <v>0.9747727116313135</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034382276795401</v>
+        <v>1.031440614354137</v>
       </c>
       <c r="J18">
-        <v>0.9991743933254096</v>
+        <v>0.9910235627883855</v>
       </c>
       <c r="K18">
-        <v>1.011408887526206</v>
+        <v>1.003465715832648</v>
       </c>
       <c r="L18">
-        <v>0.9959506545079269</v>
-      </c>
-      <c r="M18">
-        <v>1.008946650030897</v>
+        <v>0.9890415886587247</v>
       </c>
       <c r="N18">
-        <v>1.000593335570837</v>
+        <v>0.9924309299195363</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9715883134889065</v>
+        <v>0.9630443571102688</v>
       </c>
       <c r="D19">
-        <v>0.9980308181978309</v>
+        <v>0.9898679991628554</v>
       </c>
       <c r="E19">
-        <v>0.982319952191362</v>
-      </c>
-      <c r="F19">
-        <v>0.9956094096185004</v>
+        <v>0.9752451198153064</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034553555417429</v>
+        <v>1.031576834728531</v>
       </c>
       <c r="J19">
-        <v>0.9996281901368852</v>
+        <v>0.9914367754822175</v>
       </c>
       <c r="K19">
-        <v>1.011818902618196</v>
+        <v>1.003798450065159</v>
       </c>
       <c r="L19">
-        <v>0.996384783405641</v>
-      </c>
-      <c r="M19">
-        <v>1.009439410251961</v>
+        <v>0.9894383660313392</v>
       </c>
       <c r="N19">
-        <v>1.001047776825836</v>
+        <v>0.9928447294227898</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1051,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9687988419576034</v>
+        <v>0.9604330342043411</v>
       </c>
       <c r="D20">
-        <v>0.9958592166772705</v>
+        <v>0.9880461534894386</v>
       </c>
       <c r="E20">
-        <v>0.9800297429347062</v>
-      </c>
-      <c r="F20">
-        <v>0.9930582200024375</v>
+        <v>0.9731224430363958</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033782621991947</v>
+        <v>1.030963648982152</v>
       </c>
       <c r="J20">
-        <v>0.9975878564945588</v>
+        <v>0.9895792632279633</v>
       </c>
       <c r="K20">
-        <v>1.009975269652249</v>
+        <v>1.002302504835474</v>
       </c>
       <c r="L20">
-        <v>0.9944330760290145</v>
-      </c>
-      <c r="M20">
-        <v>1.007224240473064</v>
+        <v>0.987654960271881</v>
       </c>
       <c r="N20">
-        <v>0.9990045456757077</v>
+        <v>0.990984579288075</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.95945853155414</v>
+        <v>0.9516996758897824</v>
       </c>
       <c r="D21">
-        <v>0.9885978703275859</v>
+        <v>0.9819633941456944</v>
       </c>
       <c r="E21">
-        <v>0.9723761194294618</v>
-      </c>
-      <c r="F21">
-        <v>0.9845316346694568</v>
+        <v>0.9660384517437867</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031185998994957</v>
+        <v>1.028897728801866</v>
       </c>
       <c r="J21">
-        <v>0.990754815370565</v>
+        <v>0.983365444543947</v>
       </c>
       <c r="K21">
-        <v>1.003798528002065</v>
+        <v>0.9972947266079176</v>
       </c>
       <c r="L21">
-        <v>0.9879004394460847</v>
-      </c>
-      <c r="M21">
-        <v>0.9998121078414123</v>
+        <v>0.9816931244135588</v>
       </c>
       <c r="N21">
-        <v>0.9921618008495567</v>
+        <v>0.9847619362687922</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9533602811719062</v>
+        <v>0.9460070733481595</v>
       </c>
       <c r="D22">
-        <v>0.983865961081719</v>
+        <v>0.9780076216612017</v>
       </c>
       <c r="E22">
-        <v>0.9673916715773225</v>
-      </c>
-      <c r="F22">
-        <v>0.9789780489315238</v>
+        <v>0.9614335649493206</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029479509633363</v>
+        <v>1.027539937833723</v>
       </c>
       <c r="J22">
-        <v>0.9862933632038781</v>
+        <v>0.9793146217145342</v>
       </c>
       <c r="K22">
-        <v>0.9997639582366864</v>
+        <v>0.9940277144021754</v>
       </c>
       <c r="L22">
-        <v>0.9836380161633664</v>
-      </c>
-      <c r="M22">
-        <v>0.9949777831422323</v>
+        <v>0.9778098023731243</v>
       </c>
       <c r="N22">
-        <v>0.9876940129090576</v>
+        <v>0.9807053608063261</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9566156759044832</v>
+        <v>0.9490449553765978</v>
       </c>
       <c r="D23">
-        <v>0.9863910456896413</v>
+        <v>0.9801177033842974</v>
       </c>
       <c r="E23">
-        <v>0.9700512450691362</v>
-      </c>
-      <c r="F23">
-        <v>0.9819413579550226</v>
+        <v>0.9638897372150732</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030391480451956</v>
+        <v>1.02826553966745</v>
       </c>
       <c r="J23">
-        <v>0.988674964800478</v>
+        <v>0.9814763644793082</v>
       </c>
       <c r="K23">
-        <v>1.001917817597638</v>
+        <v>0.9957713799411781</v>
       </c>
       <c r="L23">
-        <v>0.98591309485895</v>
-      </c>
-      <c r="M23">
-        <v>0.9975579231816309</v>
+        <v>0.9798818491393764</v>
       </c>
       <c r="N23">
-        <v>0.9900789966530981</v>
+        <v>0.9828701734937815</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1191,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9689518643744098</v>
+        <v>0.9605762482648615</v>
       </c>
       <c r="D24">
-        <v>0.9959783100411088</v>
+        <v>0.9881460346775254</v>
       </c>
       <c r="E24">
-        <v>0.980155324325493</v>
-      </c>
-      <c r="F24">
-        <v>0.9931981149234439</v>
+        <v>0.9732388042104512</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033824970869693</v>
+        <v>1.03099733566381</v>
       </c>
       <c r="J24">
-        <v>0.9976997892684636</v>
+        <v>0.9896811428510822</v>
       </c>
       <c r="K24">
-        <v>1.010076421081552</v>
+        <v>1.002384567032795</v>
       </c>
       <c r="L24">
-        <v>0.9945401337105343</v>
-      </c>
-      <c r="M24">
-        <v>1.007345741574472</v>
+        <v>0.9877527604381773</v>
       </c>
       <c r="N24">
-        <v>0.9991166374069901</v>
+        <v>0.9910866035919446</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9823940196414965</v>
+        <v>0.9731721637284539</v>
       </c>
       <c r="D25">
-        <v>1.006454846941556</v>
+        <v>0.9969459614661149</v>
       </c>
       <c r="E25">
-        <v>0.9912107806871393</v>
-      </c>
-      <c r="F25">
-        <v>1.005512273562431</v>
+        <v>0.9834973486141123</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037516991356268</v>
+        <v>1.033932185584092</v>
       </c>
       <c r="J25">
-        <v>1.007528777863289</v>
+        <v>0.9986373960713255</v>
       </c>
       <c r="K25">
-        <v>1.018953779354128</v>
+        <v>1.009591873178848</v>
       </c>
       <c r="L25">
-        <v>1.003947087682478</v>
-      </c>
-      <c r="M25">
-        <v>1.018025617034175</v>
+        <v>0.9963573655595115</v>
       </c>
       <c r="N25">
-        <v>1.008959584293021</v>
+        <v>1.000055575719057</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9826720611891093</v>
+        <v>1.025938051212694</v>
       </c>
       <c r="D2">
-        <v>1.003600495791109</v>
+        <v>1.028769038732889</v>
       </c>
       <c r="E2">
-        <v>0.9912662217249147</v>
+        <v>1.026200958928118</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036103218267193</v>
+        <v>1.028984268334685</v>
       </c>
       <c r="J2">
-        <v>1.005383695405531</v>
+        <v>1.031104281575443</v>
       </c>
       <c r="K2">
-        <v>1.015009896862789</v>
+        <v>1.031584893355141</v>
       </c>
       <c r="L2">
-        <v>1.002848588053008</v>
+        <v>1.029024298664871</v>
       </c>
       <c r="N2">
-        <v>1.006811455572129</v>
+        <v>1.032568567924598</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9892895213028954</v>
+        <v>1.027269169358222</v>
       </c>
       <c r="D3">
-        <v>1.008243218948642</v>
+        <v>1.029710552217391</v>
       </c>
       <c r="E3">
-        <v>0.9966940940737369</v>
+        <v>1.027342097813834</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037589546683416</v>
+        <v>1.02920245316513</v>
       </c>
       <c r="J3">
-        <v>1.010076485202041</v>
+        <v>1.032072980556356</v>
       </c>
       <c r="K3">
-        <v>1.018771701656131</v>
+        <v>1.0323340519256</v>
       </c>
       <c r="L3">
-        <v>1.007369450078811</v>
+        <v>1.029971997544187</v>
       </c>
       <c r="N3">
-        <v>1.01151090966842</v>
+        <v>1.033538642569172</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9934523685585075</v>
+        <v>1.028129570331277</v>
       </c>
       <c r="D4">
-        <v>1.01116634317028</v>
+        <v>1.030318776568588</v>
       </c>
       <c r="E4">
-        <v>1.000115473446877</v>
+        <v>1.02808001213684</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038512088262917</v>
+        <v>1.029341852899161</v>
       </c>
       <c r="J4">
-        <v>1.013025059444653</v>
+        <v>1.032698455911838</v>
       </c>
       <c r="K4">
-        <v>1.021131842749456</v>
+        <v>1.032817193912261</v>
       </c>
       <c r="L4">
-        <v>1.010212505005629</v>
+        <v>1.030584172063448</v>
       </c>
       <c r="N4">
-        <v>1.014463671224663</v>
+        <v>1.034165006171401</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9951753592155167</v>
+        <v>1.028491066461249</v>
       </c>
       <c r="D5">
-        <v>1.012376704642887</v>
+        <v>1.030574237052479</v>
       </c>
       <c r="E5">
-        <v>1.001533134146751</v>
+        <v>1.028390119350224</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038890869792891</v>
+        <v>1.029400030896381</v>
       </c>
       <c r="J5">
-        <v>1.014244553342463</v>
+        <v>1.032961088131471</v>
       </c>
       <c r="K5">
-        <v>1.022107100808789</v>
+        <v>1.033019922299587</v>
       </c>
       <c r="L5">
-        <v>1.011388954092452</v>
+        <v>1.030841281284207</v>
       </c>
       <c r="N5">
-        <v>1.015684896943686</v>
+        <v>1.03442801135891</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.995463109376716</v>
+        <v>1.028551750680734</v>
       </c>
       <c r="D6">
-        <v>1.012578867990712</v>
+        <v>1.030617116145508</v>
       </c>
       <c r="E6">
-        <v>1.001769981737139</v>
+        <v>1.02844218122728</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038953947099809</v>
+        <v>1.029409774294766</v>
       </c>
       <c r="J6">
-        <v>1.01444816083084</v>
+        <v>1.033005166687222</v>
       </c>
       <c r="K6">
-        <v>1.022269878582043</v>
+        <v>1.033053938793</v>
       </c>
       <c r="L6">
-        <v>1.011585409761587</v>
+        <v>1.030884436525717</v>
       </c>
       <c r="N6">
-        <v>1.01588879357805</v>
+        <v>1.034472152511267</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9934754957871886</v>
+        <v>1.028134401505556</v>
       </c>
       <c r="D7">
-        <v>1.011182587735399</v>
+        <v>1.030322190973187</v>
       </c>
       <c r="E7">
-        <v>1.000134496247152</v>
+        <v>1.028084156241262</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038517184718051</v>
+        <v>1.029342631948205</v>
       </c>
       <c r="J7">
-        <v>1.013041432073125</v>
+        <v>1.032701966461211</v>
       </c>
       <c r="K7">
-        <v>1.021144939801831</v>
+        <v>1.0328199042875</v>
       </c>
       <c r="L7">
-        <v>1.010228297369094</v>
+        <v>1.030587608544632</v>
       </c>
       <c r="N7">
-        <v>1.014480067104146</v>
+        <v>1.034168521706157</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.984934024443085</v>
+        <v>1.026388102131658</v>
       </c>
       <c r="D8">
-        <v>1.005186852974551</v>
+        <v>1.029087435348456</v>
       </c>
       <c r="E8">
-        <v>0.9931200610545622</v>
+        <v>1.02658671291504</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036613857410793</v>
+        <v>1.029058373928939</v>
       </c>
       <c r="J8">
-        <v>1.00698847183823</v>
+        <v>1.031431936483775</v>
       </c>
       <c r="K8">
-        <v>1.016297020456693</v>
+        <v>1.031838410229246</v>
       </c>
       <c r="L8">
-        <v>1.004394039097035</v>
+        <v>1.029344796820987</v>
       </c>
       <c r="N8">
-        <v>1.008418510971433</v>
+        <v>1.032896688140478</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9688997300764745</v>
+        <v>1.023303654946129</v>
       </c>
       <c r="D9">
-        <v>0.9939578694412554</v>
+        <v>1.026903912191093</v>
       </c>
       <c r="E9">
-        <v>0.9800123362280058</v>
+        <v>1.023944238815288</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032943258689779</v>
+        <v>1.028543812040642</v>
       </c>
       <c r="J9">
-        <v>0.9956006285076866</v>
+        <v>1.02918361843788</v>
       </c>
       <c r="K9">
-        <v>1.007149742606953</v>
+        <v>1.030096450915342</v>
       </c>
       <c r="L9">
-        <v>0.9934382430507025</v>
+        <v>1.027146652176641</v>
       </c>
       <c r="N9">
-        <v>0.9970144955971556</v>
+        <v>1.030645177225073</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9574386652466796</v>
+        <v>1.021242221962613</v>
       </c>
       <c r="D10">
-        <v>0.9859587622558768</v>
+        <v>1.025442915384209</v>
       </c>
       <c r="E10">
-        <v>0.9706909564897748</v>
+        <v>1.022179871956603</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030257846520625</v>
+        <v>1.028191545588298</v>
       </c>
       <c r="J10">
-        <v>0.9874489682967075</v>
+        <v>1.027677604631381</v>
       </c>
       <c r="K10">
-        <v>1.000586249470877</v>
+        <v>1.028926662140312</v>
       </c>
       <c r="L10">
-        <v>0.9856103565801482</v>
+        <v>1.025675585978313</v>
       </c>
       <c r="N10">
-        <v>0.9888512590936686</v>
+        <v>1.029137024706227</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9522643774546081</v>
+        <v>1.020348321341924</v>
       </c>
       <c r="D11">
-        <v>0.9823562078030569</v>
+        <v>1.02480899938972</v>
       </c>
       <c r="E11">
-        <v>0.9664957976925534</v>
+        <v>1.021415198240482</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029031967269522</v>
+        <v>1.028036813104837</v>
       </c>
       <c r="J11">
-        <v>0.9837672756505382</v>
+        <v>1.027023753587938</v>
       </c>
       <c r="K11">
-        <v>0.997618711301703</v>
+        <v>1.028418091757648</v>
       </c>
       <c r="L11">
-        <v>0.9820784760372184</v>
+        <v>1.025037225774362</v>
       </c>
       <c r="N11">
-        <v>0.9851643380216457</v>
+        <v>1.028482245119304</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9503078546169198</v>
+        <v>1.020016088344602</v>
       </c>
       <c r="D12">
-        <v>0.9809955320323011</v>
+        <v>1.024573337750742</v>
       </c>
       <c r="E12">
-        <v>0.9649116492124885</v>
+        <v>1.021131057082707</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028566510816241</v>
+        <v>1.027979007375359</v>
       </c>
       <c r="J12">
-        <v>0.9823750390412578</v>
+        <v>1.026780619830912</v>
       </c>
       <c r="K12">
-        <v>0.9964961150959577</v>
+        <v>1.028228876540236</v>
       </c>
       <c r="L12">
-        <v>0.9807434424444728</v>
+        <v>1.024799900071498</v>
       </c>
       <c r="N12">
-        <v>0.9837701242766884</v>
+        <v>1.028238766084455</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9507291476258414</v>
+        <v>1.020087362517248</v>
       </c>
       <c r="D13">
-        <v>0.9812884497379295</v>
+        <v>1.024623896927839</v>
       </c>
       <c r="E13">
-        <v>0.9652526602271938</v>
+        <v>1.021192011236364</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028666821297325</v>
+        <v>1.027991421901645</v>
       </c>
       <c r="J13">
-        <v>0.9826748281511546</v>
+        <v>1.02683278486486</v>
       </c>
       <c r="K13">
-        <v>0.9967378607295441</v>
+        <v>1.028269477892885</v>
       </c>
       <c r="L13">
-        <v>0.981030888952116</v>
+        <v>1.024850816807664</v>
       </c>
       <c r="N13">
-        <v>0.9840703391215075</v>
+        <v>1.028291005198735</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9521033729555037</v>
+        <v>1.020320862938479</v>
       </c>
       <c r="D14">
-        <v>0.9822442037371916</v>
+        <v>1.02478952355865</v>
       </c>
       <c r="E14">
-        <v>0.9663653918207539</v>
+        <v>1.021391713252485</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028993702666349</v>
+        <v>1.028032041626461</v>
       </c>
       <c r="J14">
-        <v>0.983652708182541</v>
+        <v>1.027003661488393</v>
       </c>
       <c r="K14">
-        <v>0.9975263407584003</v>
+        <v>1.028402457497243</v>
       </c>
       <c r="L14">
-        <v>0.9819686045495328</v>
+        <v>1.025017612666066</v>
       </c>
       <c r="N14">
-        <v>0.9850496078547029</v>
+        <v>1.028462124486672</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9529454100727767</v>
+        <v>1.020464703793899</v>
       </c>
       <c r="D15">
-        <v>0.9828300374182469</v>
+        <v>1.024891545411063</v>
       </c>
       <c r="E15">
-        <v>0.9670474893776373</v>
+        <v>1.021514741934872</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029193745154847</v>
+        <v>1.02805702486724</v>
       </c>
       <c r="J15">
-        <v>0.9842518810640463</v>
+        <v>1.027108909083015</v>
       </c>
       <c r="K15">
-        <v>0.9980094099612318</v>
+        <v>1.028484349531275</v>
       </c>
       <c r="L15">
-        <v>0.9825432405709221</v>
+        <v>1.025120353138078</v>
       </c>
       <c r="N15">
-        <v>0.9856496316304257</v>
+        <v>1.028567521544951</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9577773785928546</v>
+        <v>1.021301519652272</v>
       </c>
       <c r="D16">
-        <v>0.9861947882586278</v>
+        <v>1.025484958810049</v>
       </c>
       <c r="E16">
-        <v>0.9709658610780088</v>
+        <v>1.022230605976066</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030337822665351</v>
+        <v>1.028201768275129</v>
       </c>
       <c r="J16">
-        <v>0.9876899543546155</v>
+        <v>1.027720961684243</v>
       </c>
       <c r="K16">
-        <v>1.000780429758778</v>
+        <v>1.028960371007667</v>
       </c>
       <c r="L16">
-        <v>0.9858416119003445</v>
+        <v>1.025717922524221</v>
       </c>
       <c r="N16">
-        <v>0.9890925873794202</v>
+        <v>1.029180443331077</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9607498420147543</v>
+        <v>1.021826084014763</v>
       </c>
       <c r="D17">
-        <v>0.9882671089785942</v>
+        <v>1.025856842965766</v>
       </c>
       <c r="E17">
-        <v>0.9733798572093414</v>
+        <v>1.022679461091937</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031038159430366</v>
+        <v>1.028291972713831</v>
       </c>
       <c r="J17">
-        <v>0.9898046329356993</v>
+        <v>1.028104418651253</v>
       </c>
       <c r="K17">
-        <v>1.002484034002942</v>
+        <v>1.029258417726303</v>
       </c>
       <c r="L17">
-        <v>0.9878713080462294</v>
+        <v>1.026092390645512</v>
       </c>
       <c r="N17">
-        <v>0.9912102690466463</v>
+        <v>1.029564444850963</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9624634201068544</v>
+        <v>1.022131929755492</v>
       </c>
       <c r="D18">
-        <v>0.9894625795523464</v>
+        <v>1.026073631949459</v>
       </c>
       <c r="E18">
-        <v>0.9747727116313135</v>
+        <v>1.022941204228903</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031440614354137</v>
+        <v>1.028344375344415</v>
       </c>
       <c r="J18">
-        <v>0.9910235627883855</v>
+        <v>1.028327915235643</v>
       </c>
       <c r="K18">
-        <v>1.003465715832648</v>
+        <v>1.02943206627228</v>
       </c>
       <c r="L18">
-        <v>0.9890415886587247</v>
+        <v>1.026310678742396</v>
       </c>
       <c r="N18">
-        <v>0.9924309299195363</v>
+        <v>1.029788258826138</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9630443571102688</v>
+        <v>1.022236194411597</v>
       </c>
       <c r="D19">
-        <v>0.9898679991628554</v>
+        <v>1.026147530305067</v>
       </c>
       <c r="E19">
-        <v>0.9752451198153064</v>
+        <v>1.023030440705521</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031576834728531</v>
+        <v>1.028362207338202</v>
       </c>
       <c r="J19">
-        <v>0.9914367754822175</v>
+        <v>1.028404093506835</v>
       </c>
       <c r="K19">
-        <v>1.003798450065159</v>
+        <v>1.029491242586529</v>
       </c>
       <c r="L19">
-        <v>0.9894383660313392</v>
+        <v>1.026385086907792</v>
       </c>
       <c r="N19">
-        <v>0.9928447294227898</v>
+        <v>1.029864545279213</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9604330342043411</v>
+        <v>1.021769816065212</v>
       </c>
       <c r="D20">
-        <v>0.9880461534894386</v>
+        <v>1.025816956238144</v>
       </c>
       <c r="E20">
-        <v>0.9731224430363958</v>
+        <v>1.022631310086121</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030963648982152</v>
+        <v>1.028282316575519</v>
       </c>
       <c r="J20">
-        <v>0.9895792632279633</v>
+        <v>1.028063294685892</v>
       </c>
       <c r="K20">
-        <v>1.002302504835474</v>
+        <v>1.029226460535655</v>
       </c>
       <c r="L20">
-        <v>0.987654960271881</v>
+        <v>1.026052227522355</v>
       </c>
       <c r="N20">
-        <v>0.990984579288075</v>
+        <v>1.029523262484854</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9516996758897824</v>
+        <v>1.020252108406069</v>
       </c>
       <c r="D21">
-        <v>0.9819633941456944</v>
+        <v>1.024740756102692</v>
       </c>
       <c r="E21">
-        <v>0.9660384517437867</v>
+        <v>1.021332908975759</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028897728801866</v>
+        <v>1.028020089279436</v>
       </c>
       <c r="J21">
-        <v>0.983365444543947</v>
+        <v>1.026953349906856</v>
       </c>
       <c r="K21">
-        <v>0.9972947266079176</v>
+        <v>1.02836330688241</v>
       </c>
       <c r="L21">
-        <v>0.9816931244135588</v>
+        <v>1.024968501273737</v>
       </c>
       <c r="N21">
-        <v>0.9847619362687922</v>
+        <v>1.028411741456919</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9460070733481595</v>
+        <v>1.019296714263076</v>
       </c>
       <c r="D22">
-        <v>0.9780076216612017</v>
+        <v>1.024062965252417</v>
       </c>
       <c r="E22">
-        <v>0.9614335649493206</v>
+        <v>1.020515930179734</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027539937833723</v>
+        <v>1.027853299946266</v>
       </c>
       <c r="J22">
-        <v>0.9793146217145342</v>
+        <v>1.026253952333501</v>
       </c>
       <c r="K22">
-        <v>0.9940277144021754</v>
+        <v>1.027818815842234</v>
       </c>
       <c r="L22">
-        <v>0.9778098023731243</v>
+        <v>1.024285901262364</v>
       </c>
       <c r="N22">
-        <v>0.9807053608063261</v>
+        <v>1.027711350658788</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9490449553765978</v>
+        <v>1.019803297635392</v>
       </c>
       <c r="D23">
-        <v>0.9801177033842974</v>
+        <v>1.024422384008476</v>
       </c>
       <c r="E23">
-        <v>0.9638897372150732</v>
+        <v>1.020949086257157</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02826553966745</v>
+        <v>1.027941900088114</v>
       </c>
       <c r="J23">
-        <v>0.9814763644793082</v>
+        <v>1.026624862498879</v>
       </c>
       <c r="K23">
-        <v>0.9957713799411781</v>
+        <v>1.028107631528156</v>
       </c>
       <c r="L23">
-        <v>0.9798818491393764</v>
+        <v>1.024647876980591</v>
       </c>
       <c r="N23">
-        <v>0.9828701734937815</v>
+        <v>1.028082787559145</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9605762482648615</v>
+        <v>1.021795241511738</v>
       </c>
       <c r="D24">
-        <v>0.9881460346775254</v>
+        <v>1.025834979718856</v>
       </c>
       <c r="E24">
-        <v>0.9732388042104512</v>
+        <v>1.022653067658223</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03099733566381</v>
+        <v>1.02828668042409</v>
       </c>
       <c r="J24">
-        <v>0.9896811428510822</v>
+        <v>1.028081877352685</v>
       </c>
       <c r="K24">
-        <v>1.002384567032795</v>
+        <v>1.029240901223326</v>
       </c>
       <c r="L24">
-        <v>0.9877527604381773</v>
+        <v>1.02607037591917</v>
       </c>
       <c r="N24">
-        <v>0.9910866035919446</v>
+        <v>1.029541871541166</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9731721637284539</v>
+        <v>1.024101944086345</v>
       </c>
       <c r="D25">
-        <v>0.9969459614661149</v>
+        <v>1.027469333133986</v>
       </c>
       <c r="E25">
-        <v>0.9834973486141123</v>
+        <v>1.024627848078591</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033932185584092</v>
+        <v>1.028678461738373</v>
       </c>
       <c r="J25">
-        <v>0.9986373960713255</v>
+        <v>1.029766107791799</v>
       </c>
       <c r="K25">
-        <v>1.009591873178848</v>
+        <v>1.030548275569554</v>
       </c>
       <c r="L25">
-        <v>0.9963573655595115</v>
+        <v>1.027715907227396</v>
       </c>
       <c r="N25">
-        <v>1.000055575719057</v>
+        <v>1.031228493780687</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025938051212694</v>
+        <v>0.982672061189108</v>
       </c>
       <c r="D2">
-        <v>1.028769038732889</v>
+        <v>1.003600495791108</v>
       </c>
       <c r="E2">
-        <v>1.026200958928118</v>
+        <v>0.9912662217249134</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028984268334685</v>
+        <v>1.036103218267192</v>
       </c>
       <c r="J2">
-        <v>1.031104281575443</v>
+        <v>1.00538369540553</v>
       </c>
       <c r="K2">
-        <v>1.031584893355141</v>
+        <v>1.015009896862788</v>
       </c>
       <c r="L2">
-        <v>1.029024298664871</v>
+        <v>1.002848588053007</v>
       </c>
       <c r="N2">
-        <v>1.032568567924598</v>
+        <v>1.006811455572128</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027269169358222</v>
+        <v>0.9892895213028946</v>
       </c>
       <c r="D3">
-        <v>1.029710552217391</v>
+        <v>1.008243218948641</v>
       </c>
       <c r="E3">
-        <v>1.027342097813834</v>
+        <v>0.9966940940737367</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.02920245316513</v>
+        <v>1.037589546683416</v>
       </c>
       <c r="J3">
-        <v>1.032072980556356</v>
+        <v>1.01007648520204</v>
       </c>
       <c r="K3">
-        <v>1.0323340519256</v>
+        <v>1.01877170165613</v>
       </c>
       <c r="L3">
-        <v>1.029971997544187</v>
+        <v>1.00736945007881</v>
       </c>
       <c r="N3">
-        <v>1.033538642569172</v>
+        <v>1.011510909668419</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028129570331277</v>
+        <v>0.9934523685585079</v>
       </c>
       <c r="D4">
-        <v>1.030318776568588</v>
+        <v>1.011166343170281</v>
       </c>
       <c r="E4">
-        <v>1.02808001213684</v>
+        <v>1.000115473446877</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029341852899161</v>
+        <v>1.038512088262917</v>
       </c>
       <c r="J4">
-        <v>1.032698455911838</v>
+        <v>1.013025059444654</v>
       </c>
       <c r="K4">
-        <v>1.032817193912261</v>
+        <v>1.021131842749457</v>
       </c>
       <c r="L4">
-        <v>1.030584172063448</v>
+        <v>1.010212505005629</v>
       </c>
       <c r="N4">
-        <v>1.034165006171401</v>
+        <v>1.014463671224664</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028491066461249</v>
+        <v>0.9951753592155181</v>
       </c>
       <c r="D5">
-        <v>1.030574237052479</v>
+        <v>1.012376704642889</v>
       </c>
       <c r="E5">
-        <v>1.028390119350224</v>
+        <v>1.001533134146753</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029400030896381</v>
+        <v>1.038890869792891</v>
       </c>
       <c r="J5">
-        <v>1.032961088131471</v>
+        <v>1.014244553342465</v>
       </c>
       <c r="K5">
-        <v>1.033019922299587</v>
+        <v>1.022107100808791</v>
       </c>
       <c r="L5">
-        <v>1.030841281284207</v>
+        <v>1.011388954092453</v>
       </c>
       <c r="N5">
-        <v>1.03442801135891</v>
+        <v>1.015684896943687</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028551750680734</v>
+        <v>0.9954631093767152</v>
       </c>
       <c r="D6">
-        <v>1.030617116145508</v>
+        <v>1.012578867990712</v>
       </c>
       <c r="E6">
-        <v>1.02844218122728</v>
+        <v>1.001769981737138</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029409774294766</v>
+        <v>1.038953947099809</v>
       </c>
       <c r="J6">
-        <v>1.033005166687222</v>
+        <v>1.014448160830839</v>
       </c>
       <c r="K6">
-        <v>1.033053938793</v>
+        <v>1.022269878582043</v>
       </c>
       <c r="L6">
-        <v>1.030884436525717</v>
+        <v>1.011585409761586</v>
       </c>
       <c r="N6">
-        <v>1.034472152511267</v>
+        <v>1.015888793578049</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028134401505556</v>
+        <v>0.9934754957871885</v>
       </c>
       <c r="D7">
-        <v>1.030322190973187</v>
+        <v>1.011182587735399</v>
       </c>
       <c r="E7">
-        <v>1.028084156241262</v>
+        <v>1.000134496247152</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029342631948205</v>
+        <v>1.038517184718051</v>
       </c>
       <c r="J7">
-        <v>1.032701966461211</v>
+        <v>1.013041432073125</v>
       </c>
       <c r="K7">
-        <v>1.0328199042875</v>
+        <v>1.021144939801831</v>
       </c>
       <c r="L7">
-        <v>1.030587608544632</v>
+        <v>1.010228297369093</v>
       </c>
       <c r="N7">
-        <v>1.034168521706157</v>
+        <v>1.014480067104145</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026388102131658</v>
+        <v>0.9849340244430838</v>
       </c>
       <c r="D8">
-        <v>1.029087435348456</v>
+        <v>1.00518685297455</v>
       </c>
       <c r="E8">
-        <v>1.02658671291504</v>
+        <v>0.9931200610545606</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029058373928939</v>
+        <v>1.036613857410792</v>
       </c>
       <c r="J8">
-        <v>1.031431936483775</v>
+        <v>1.006988471838229</v>
       </c>
       <c r="K8">
-        <v>1.031838410229246</v>
+        <v>1.016297020456692</v>
       </c>
       <c r="L8">
-        <v>1.029344796820987</v>
+        <v>1.004394039097033</v>
       </c>
       <c r="N8">
-        <v>1.032896688140478</v>
+        <v>1.008418510971431</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023303654946129</v>
+        <v>0.9688997300764727</v>
       </c>
       <c r="D9">
-        <v>1.026903912191093</v>
+        <v>0.993957869441254</v>
       </c>
       <c r="E9">
-        <v>1.023944238815288</v>
+        <v>0.9800123362280044</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028543812040642</v>
+        <v>1.032943258689778</v>
       </c>
       <c r="J9">
-        <v>1.02918361843788</v>
+        <v>0.9956006285076847</v>
       </c>
       <c r="K9">
-        <v>1.030096450915342</v>
+        <v>1.007149742606952</v>
       </c>
       <c r="L9">
-        <v>1.027146652176641</v>
+        <v>0.9934382430507012</v>
       </c>
       <c r="N9">
-        <v>1.030645177225073</v>
+        <v>0.9970144955971538</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021242221962613</v>
+        <v>0.957438665246679</v>
       </c>
       <c r="D10">
-        <v>1.025442915384209</v>
+        <v>0.9859587622558764</v>
       </c>
       <c r="E10">
-        <v>1.022179871956603</v>
+        <v>0.9706909564897743</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028191545588298</v>
+        <v>1.030257846520624</v>
       </c>
       <c r="J10">
-        <v>1.027677604631381</v>
+        <v>0.9874489682967068</v>
       </c>
       <c r="K10">
-        <v>1.028926662140312</v>
+        <v>1.000586249470877</v>
       </c>
       <c r="L10">
-        <v>1.025675585978313</v>
+        <v>0.9856103565801476</v>
       </c>
       <c r="N10">
-        <v>1.029137024706227</v>
+        <v>0.9888512590936682</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020348321341924</v>
+        <v>0.9522643774546081</v>
       </c>
       <c r="D11">
-        <v>1.02480899938972</v>
+        <v>0.9823562078030568</v>
       </c>
       <c r="E11">
-        <v>1.021415198240482</v>
+        <v>0.9664957976925531</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028036813104837</v>
+        <v>1.029031967269522</v>
       </c>
       <c r="J11">
-        <v>1.027023753587938</v>
+        <v>0.9837672756505381</v>
       </c>
       <c r="K11">
-        <v>1.028418091757648</v>
+        <v>0.997618711301703</v>
       </c>
       <c r="L11">
-        <v>1.025037225774362</v>
+        <v>0.9820784760372182</v>
       </c>
       <c r="N11">
-        <v>1.028482245119304</v>
+        <v>0.9851643380216456</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020016088344602</v>
+        <v>0.9503078546169188</v>
       </c>
       <c r="D12">
-        <v>1.024573337750742</v>
+        <v>0.9809955320323003</v>
       </c>
       <c r="E12">
-        <v>1.021131057082707</v>
+        <v>0.9649116492124876</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027979007375359</v>
+        <v>1.028566510816241</v>
       </c>
       <c r="J12">
-        <v>1.026780619830912</v>
+        <v>0.9823750390412569</v>
       </c>
       <c r="K12">
-        <v>1.028228876540236</v>
+        <v>0.9964961150959569</v>
       </c>
       <c r="L12">
-        <v>1.024799900071498</v>
+        <v>0.9807434424444718</v>
       </c>
       <c r="N12">
-        <v>1.028238766084455</v>
+        <v>0.9837701242766873</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020087362517248</v>
+        <v>0.9507291476258409</v>
       </c>
       <c r="D13">
-        <v>1.024623896927839</v>
+        <v>0.9812884497379293</v>
       </c>
       <c r="E13">
-        <v>1.021192011236364</v>
+        <v>0.9652526602271935</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027991421901645</v>
+        <v>1.028666821297325</v>
       </c>
       <c r="J13">
-        <v>1.02683278486486</v>
+        <v>0.9826748281511541</v>
       </c>
       <c r="K13">
-        <v>1.028269477892885</v>
+        <v>0.9967378607295438</v>
       </c>
       <c r="L13">
-        <v>1.024850816807664</v>
+        <v>0.9810308889521158</v>
       </c>
       <c r="N13">
-        <v>1.028291005198735</v>
+        <v>0.9840703391215069</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020320862938479</v>
+        <v>0.9521033729555013</v>
       </c>
       <c r="D14">
-        <v>1.02478952355865</v>
+        <v>0.9822442037371898</v>
       </c>
       <c r="E14">
-        <v>1.021391713252485</v>
+        <v>0.9663653918207515</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028032041626461</v>
+        <v>1.028993702666348</v>
       </c>
       <c r="J14">
-        <v>1.027003661488393</v>
+        <v>0.9836527081825388</v>
       </c>
       <c r="K14">
-        <v>1.028402457497243</v>
+        <v>0.9975263407583985</v>
       </c>
       <c r="L14">
-        <v>1.025017612666066</v>
+        <v>0.9819686045495307</v>
       </c>
       <c r="N14">
-        <v>1.028462124486672</v>
+        <v>0.9850496078547006</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020464703793899</v>
+        <v>0.952945410072775</v>
       </c>
       <c r="D15">
-        <v>1.024891545411063</v>
+        <v>0.9828300374182452</v>
       </c>
       <c r="E15">
-        <v>1.021514741934872</v>
+        <v>0.9670474893776353</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02805702486724</v>
+        <v>1.029193745154846</v>
       </c>
       <c r="J15">
-        <v>1.027108909083015</v>
+        <v>0.9842518810640446</v>
       </c>
       <c r="K15">
-        <v>1.028484349531275</v>
+        <v>0.9980094099612302</v>
       </c>
       <c r="L15">
-        <v>1.025120353138078</v>
+        <v>0.9825432405709202</v>
       </c>
       <c r="N15">
-        <v>1.028567521544951</v>
+        <v>0.9856496316304242</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021301519652272</v>
+        <v>0.9577773785928568</v>
       </c>
       <c r="D16">
-        <v>1.025484958810049</v>
+        <v>0.9861947882586298</v>
       </c>
       <c r="E16">
-        <v>1.022230605976066</v>
+        <v>0.9709658610780104</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028201768275129</v>
+        <v>1.030337822665351</v>
       </c>
       <c r="J16">
-        <v>1.027720961684243</v>
+        <v>0.9876899543546177</v>
       </c>
       <c r="K16">
-        <v>1.028960371007667</v>
+        <v>1.00078042975878</v>
       </c>
       <c r="L16">
-        <v>1.025717922524221</v>
+        <v>0.9858416119003462</v>
       </c>
       <c r="N16">
-        <v>1.029180443331077</v>
+        <v>0.9890925873794224</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021826084014763</v>
+        <v>0.9607498420147561</v>
       </c>
       <c r="D17">
-        <v>1.025856842965766</v>
+        <v>0.9882671089785962</v>
       </c>
       <c r="E17">
-        <v>1.022679461091937</v>
+        <v>0.9733798572093429</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028291972713831</v>
+        <v>1.031038159430368</v>
       </c>
       <c r="J17">
-        <v>1.028104418651253</v>
+        <v>0.9898046329357014</v>
       </c>
       <c r="K17">
-        <v>1.029258417726303</v>
+        <v>1.002484034002944</v>
       </c>
       <c r="L17">
-        <v>1.026092390645512</v>
+        <v>0.9878713080462308</v>
       </c>
       <c r="N17">
-        <v>1.029564444850963</v>
+        <v>0.991210269046648</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022131929755492</v>
+        <v>0.9624634201068543</v>
       </c>
       <c r="D18">
-        <v>1.026073631949459</v>
+        <v>0.9894625795523462</v>
       </c>
       <c r="E18">
-        <v>1.022941204228903</v>
+        <v>0.9747727116313133</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028344375344415</v>
+        <v>1.031440614354137</v>
       </c>
       <c r="J18">
-        <v>1.028327915235643</v>
+        <v>0.9910235627883854</v>
       </c>
       <c r="K18">
-        <v>1.02943206627228</v>
+        <v>1.003465715832648</v>
       </c>
       <c r="L18">
-        <v>1.026310678742396</v>
+        <v>0.9890415886587246</v>
       </c>
       <c r="N18">
-        <v>1.029788258826138</v>
+        <v>0.9924309299195362</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022236194411597</v>
+        <v>0.9630443571102701</v>
       </c>
       <c r="D19">
-        <v>1.026147530305067</v>
+        <v>0.9898679991628565</v>
       </c>
       <c r="E19">
-        <v>1.023030440705521</v>
+        <v>0.9752451198153075</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028362207338202</v>
+        <v>1.031576834728531</v>
       </c>
       <c r="J19">
-        <v>1.028404093506835</v>
+        <v>0.9914367754822189</v>
       </c>
       <c r="K19">
-        <v>1.029491242586529</v>
+        <v>1.00379845006516</v>
       </c>
       <c r="L19">
-        <v>1.026385086907792</v>
+        <v>0.9894383660313401</v>
       </c>
       <c r="N19">
-        <v>1.029864545279213</v>
+        <v>0.9928447294227912</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021769816065212</v>
+        <v>0.9604330342043411</v>
       </c>
       <c r="D20">
-        <v>1.025816956238144</v>
+        <v>0.9880461534894387</v>
       </c>
       <c r="E20">
-        <v>1.022631310086121</v>
+        <v>0.9731224430363955</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028282316575519</v>
+        <v>1.030963648982152</v>
       </c>
       <c r="J20">
-        <v>1.028063294685892</v>
+        <v>0.9895792632279633</v>
       </c>
       <c r="K20">
-        <v>1.029226460535655</v>
+        <v>1.002302504835474</v>
       </c>
       <c r="L20">
-        <v>1.026052227522355</v>
+        <v>0.9876549602718806</v>
       </c>
       <c r="N20">
-        <v>1.029523262484854</v>
+        <v>0.9909845792880752</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020252108406069</v>
+        <v>0.9516996758897825</v>
       </c>
       <c r="D21">
-        <v>1.024740756102692</v>
+        <v>0.9819633941456941</v>
       </c>
       <c r="E21">
-        <v>1.021332908975759</v>
+        <v>0.9660384517437867</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028020089279436</v>
+        <v>1.028897728801866</v>
       </c>
       <c r="J21">
-        <v>1.026953349906856</v>
+        <v>0.983365444543947</v>
       </c>
       <c r="K21">
-        <v>1.02836330688241</v>
+        <v>0.9972947266079176</v>
       </c>
       <c r="L21">
-        <v>1.024968501273737</v>
+        <v>0.9816931244135586</v>
       </c>
       <c r="N21">
-        <v>1.028411741456919</v>
+        <v>0.9847619362687925</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019296714263076</v>
+        <v>0.9460070733481617</v>
       </c>
       <c r="D22">
-        <v>1.024062965252417</v>
+        <v>0.9780076216612033</v>
       </c>
       <c r="E22">
-        <v>1.020515930179734</v>
+        <v>0.9614335649493221</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027853299946266</v>
+        <v>1.027539937833723</v>
       </c>
       <c r="J22">
-        <v>1.026253952333501</v>
+        <v>0.9793146217145361</v>
       </c>
       <c r="K22">
-        <v>1.027818815842234</v>
+        <v>0.9940277144021769</v>
       </c>
       <c r="L22">
-        <v>1.024285901262364</v>
+        <v>0.9778098023731256</v>
       </c>
       <c r="N22">
-        <v>1.027711350658788</v>
+        <v>0.980705360806328</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019803297635392</v>
+        <v>0.9490449553765977</v>
       </c>
       <c r="D23">
-        <v>1.024422384008476</v>
+        <v>0.9801177033842975</v>
       </c>
       <c r="E23">
-        <v>1.020949086257157</v>
+        <v>0.9638897372150729</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027941900088114</v>
+        <v>1.02826553966745</v>
       </c>
       <c r="J23">
-        <v>1.026624862498879</v>
+        <v>0.981476364479308</v>
       </c>
       <c r="K23">
-        <v>1.028107631528156</v>
+        <v>0.9957713799411779</v>
       </c>
       <c r="L23">
-        <v>1.024647876980591</v>
+        <v>0.9798818491393759</v>
       </c>
       <c r="N23">
-        <v>1.028082787559145</v>
+        <v>0.9828701734937813</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021795241511738</v>
+        <v>0.9605762482648609</v>
       </c>
       <c r="D24">
-        <v>1.025834979718856</v>
+        <v>0.9881460346775246</v>
       </c>
       <c r="E24">
-        <v>1.022653067658223</v>
+        <v>0.9732388042104502</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02828668042409</v>
+        <v>1.03099733566381</v>
       </c>
       <c r="J24">
-        <v>1.028081877352685</v>
+        <v>0.9896811428510814</v>
       </c>
       <c r="K24">
-        <v>1.029240901223326</v>
+        <v>1.002384567032794</v>
       </c>
       <c r="L24">
-        <v>1.02607037591917</v>
+        <v>0.9877527604381763</v>
       </c>
       <c r="N24">
-        <v>1.029541871541166</v>
+        <v>0.9910866035919434</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024101944086345</v>
+        <v>0.9731721637284539</v>
       </c>
       <c r="D25">
-        <v>1.027469333133986</v>
+        <v>0.9969459614661145</v>
       </c>
       <c r="E25">
-        <v>1.024627848078591</v>
+        <v>0.9834973486141118</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028678461738373</v>
+        <v>1.033932185584092</v>
       </c>
       <c r="J25">
-        <v>1.029766107791799</v>
+        <v>0.9986373960713252</v>
       </c>
       <c r="K25">
-        <v>1.030548275569554</v>
+        <v>1.009591873178848</v>
       </c>
       <c r="L25">
-        <v>1.027715907227396</v>
+        <v>0.9963573655595109</v>
       </c>
       <c r="N25">
-        <v>1.031228493780687</v>
+        <v>1.000055575719057</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,34 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.982672061189108</v>
+        <v>0.9959403980453404</v>
       </c>
       <c r="D2">
-        <v>1.003600495791108</v>
+        <v>1.021517721379767</v>
       </c>
       <c r="E2">
-        <v>0.9912662217249134</v>
+        <v>1.002960780742471</v>
+      </c>
+      <c r="F2">
+        <v>1.0288014185806</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036103218267192</v>
+        <v>1.04360405598563</v>
       </c>
       <c r="J2">
-        <v>1.00538369540553</v>
+        <v>1.018243212822274</v>
       </c>
       <c r="K2">
-        <v>1.015009896862788</v>
+        <v>1.032685203623161</v>
       </c>
       <c r="L2">
-        <v>1.002848588053007</v>
+        <v>1.0143790207277</v>
+      </c>
+      <c r="M2">
+        <v>1.039873572534313</v>
       </c>
       <c r="N2">
-        <v>1.006811455572128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010010648003127</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.040129648442389</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03418148748179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,34 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9892895213028946</v>
+        <v>0.9994219273479075</v>
       </c>
       <c r="D3">
-        <v>1.008243218948641</v>
+        <v>1.023762087200456</v>
       </c>
       <c r="E3">
-        <v>0.9966940940737367</v>
+        <v>1.005664334117197</v>
+      </c>
+      <c r="F3">
+        <v>1.031238209644239</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037589546683416</v>
+        <v>1.044096367565531</v>
       </c>
       <c r="J3">
-        <v>1.01007648520204</v>
+        <v>1.019928363621473</v>
       </c>
       <c r="K3">
-        <v>1.01877170165613</v>
+        <v>1.03409969392326</v>
       </c>
       <c r="L3">
-        <v>1.00736945007881</v>
+        <v>1.01622524815248</v>
+      </c>
+      <c r="M3">
+        <v>1.041486404377823</v>
       </c>
       <c r="N3">
-        <v>1.011510909668419</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01058431329238</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.041406096235578</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.035178985463981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,69 +539,105 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9934523685585079</v>
+        <v>1.001638454046872</v>
       </c>
       <c r="D4">
-        <v>1.011166343170281</v>
+        <v>1.02519447831588</v>
       </c>
       <c r="E4">
-        <v>1.000115473446877</v>
+        <v>1.007391567269426</v>
+      </c>
+      <c r="F4">
+        <v>1.032796559306532</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038512088262917</v>
+        <v>1.044400211239181</v>
       </c>
       <c r="J4">
-        <v>1.013025059444654</v>
+        <v>1.021000340660474</v>
       </c>
       <c r="K4">
-        <v>1.021131842749457</v>
+        <v>1.034998047884522</v>
       </c>
       <c r="L4">
-        <v>1.010212505005629</v>
+        <v>1.017401593711535</v>
+      </c>
+      <c r="M4">
+        <v>1.042514638527792</v>
       </c>
       <c r="N4">
-        <v>1.014463671224664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010949096893055</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.042219873145481</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.035815106500964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>0.9951753592155181</v>
+        <v>1.002564441828422</v>
       </c>
       <c r="D5">
-        <v>1.012376704642889</v>
+        <v>1.025795601192319</v>
       </c>
       <c r="E5">
-        <v>1.001533134146753</v>
+        <v>1.008114867841734</v>
+      </c>
+      <c r="F5">
+        <v>1.033449977005904</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038890869792891</v>
+        <v>1.044526100788344</v>
       </c>
       <c r="J5">
-        <v>1.014244553342465</v>
+        <v>1.021449218644537</v>
       </c>
       <c r="K5">
-        <v>1.022107100808791</v>
+        <v>1.03537530084386</v>
       </c>
       <c r="L5">
-        <v>1.011388954092453</v>
+        <v>1.017894161647922</v>
+      </c>
+      <c r="M5">
+        <v>1.042945867880578</v>
       </c>
       <c r="N5">
-        <v>1.015684896943687</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011102024396919</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.042561161373071</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.036089067252591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -561,34 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9954631093767152</v>
+        <v>1.002722595135105</v>
       </c>
       <c r="D6">
-        <v>1.012578867990712</v>
+        <v>1.025900645368336</v>
       </c>
       <c r="E6">
-        <v>1.001769981737138</v>
+        <v>1.008238861731487</v>
+      </c>
+      <c r="F6">
+        <v>1.033562598062828</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038953947099809</v>
+        <v>1.044549037818784</v>
       </c>
       <c r="J6">
-        <v>1.014448160830839</v>
+        <v>1.021527423388269</v>
       </c>
       <c r="K6">
-        <v>1.022269878582043</v>
+        <v>1.035442747334508</v>
       </c>
       <c r="L6">
-        <v>1.011585409761586</v>
+        <v>1.017979432965088</v>
+      </c>
+      <c r="M6">
+        <v>1.043021188843631</v>
       </c>
       <c r="N6">
-        <v>1.015888793578049</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011128927547659</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.042620772692934</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.036145548515778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -596,34 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9934754957871885</v>
+        <v>1.001659375171959</v>
       </c>
       <c r="D7">
-        <v>1.011182587735399</v>
+        <v>1.025214291110056</v>
       </c>
       <c r="E7">
-        <v>1.000134496247152</v>
+        <v>1.007408919671383</v>
+      </c>
+      <c r="F7">
+        <v>1.032813787570021</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038517184718051</v>
+        <v>1.044407290151468</v>
       </c>
       <c r="J7">
-        <v>1.013041432073125</v>
+        <v>1.021014653814199</v>
       </c>
       <c r="K7">
-        <v>1.021144939801831</v>
+        <v>1.035014733234347</v>
       </c>
       <c r="L7">
-        <v>1.010228297369093</v>
+        <v>1.017415768772194</v>
+      </c>
+      <c r="M7">
+        <v>1.042528800703901</v>
       </c>
       <c r="N7">
-        <v>1.014480067104145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010954687470272</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.042231081531577</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.035847123076917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -631,34 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9849340244430838</v>
+        <v>0.997135321881312</v>
       </c>
       <c r="D8">
-        <v>1.00518685297455</v>
+        <v>1.022294979368331</v>
       </c>
       <c r="E8">
-        <v>0.9931200610545606</v>
+        <v>1.003888748178878</v>
+      </c>
+      <c r="F8">
+        <v>1.029639351041058</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036613857410792</v>
+        <v>1.043780205010723</v>
       </c>
       <c r="J8">
-        <v>1.006988471838229</v>
+        <v>1.018826949967044</v>
       </c>
       <c r="K8">
-        <v>1.016297020456692</v>
+        <v>1.033181187679274</v>
       </c>
       <c r="L8">
-        <v>1.004394039097033</v>
+        <v>1.015016300307076</v>
+      </c>
+      <c r="M8">
+        <v>1.04043226491871</v>
       </c>
       <c r="N8">
-        <v>1.008418510971431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010210332734629</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.040571816097002</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.034555230543871</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -666,34 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9688997300764727</v>
+        <v>0.9888606741973579</v>
       </c>
       <c r="D9">
-        <v>0.993957869441254</v>
+        <v>1.016975245413987</v>
       </c>
       <c r="E9">
-        <v>0.9800123362280044</v>
+        <v>0.9974974580397499</v>
+      </c>
+      <c r="F9">
+        <v>1.023886298823904</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032943258689778</v>
+        <v>1.0425524322925</v>
       </c>
       <c r="J9">
-        <v>0.9956006285076847</v>
+        <v>1.014813017341102</v>
       </c>
       <c r="K9">
-        <v>1.007149742606952</v>
+        <v>1.029798786516652</v>
       </c>
       <c r="L9">
-        <v>0.9934382430507012</v>
+        <v>1.010631268149206</v>
+      </c>
+      <c r="M9">
+        <v>1.036603370303042</v>
       </c>
       <c r="N9">
-        <v>0.9970144955971538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008842363589899</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.037541496638779</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.032160429038522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -701,34 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.957438665246679</v>
+        <v>0.9831782557182951</v>
       </c>
       <c r="D10">
-        <v>0.9859587622558764</v>
+        <v>1.013377314963143</v>
       </c>
       <c r="E10">
-        <v>0.9706909564897743</v>
+        <v>0.993149285971091</v>
+      </c>
+      <c r="F10">
+        <v>1.020085750919775</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030257846520624</v>
+        <v>1.041682612825928</v>
       </c>
       <c r="J10">
-        <v>0.9874489682967068</v>
+        <v>1.012075555753851</v>
       </c>
       <c r="K10">
-        <v>1.000586249470877</v>
+        <v>1.027509166666096</v>
       </c>
       <c r="L10">
-        <v>0.9856103565801476</v>
+        <v>1.007643343722659</v>
+      </c>
+      <c r="M10">
+        <v>1.034101579942392</v>
       </c>
       <c r="N10">
-        <v>0.9888512590936682</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007912453730674</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.035613104223461</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.030558425394281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -736,34 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9522643774546081</v>
+        <v>0.9810102102133846</v>
       </c>
       <c r="D11">
-        <v>0.9823562078030568</v>
+        <v>1.012259119699948</v>
       </c>
       <c r="E11">
-        <v>0.9664957976925531</v>
+        <v>0.9915449004998808</v>
+      </c>
+      <c r="F11">
+        <v>1.019507523629773</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029031967269522</v>
+        <v>1.041499562379471</v>
       </c>
       <c r="J11">
-        <v>0.9837672756505381</v>
+        <v>1.01119489567433</v>
       </c>
       <c r="K11">
-        <v>0.997618711301703</v>
+        <v>1.026953491756662</v>
       </c>
       <c r="L11">
-        <v>0.9820784760372182</v>
+        <v>1.006628048732828</v>
+      </c>
+      <c r="M11">
+        <v>1.034070700537979</v>
       </c>
       <c r="N11">
-        <v>0.9851643380216456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007642793742849</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.036026112552458</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.030198592971262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -771,34 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9503078546169188</v>
+        <v>0.9803131052281626</v>
       </c>
       <c r="D12">
-        <v>0.9809955320323003</v>
+        <v>1.011994728825036</v>
       </c>
       <c r="E12">
-        <v>0.9649116492124876</v>
+        <v>0.9910495454381999</v>
+      </c>
+      <c r="F12">
+        <v>1.019672869985357</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028566510816241</v>
+        <v>1.041500098431472</v>
       </c>
       <c r="J12">
-        <v>0.9823750390412569</v>
+        <v>1.010974668232809</v>
       </c>
       <c r="K12">
-        <v>0.9964961150959569</v>
+        <v>1.026895681045565</v>
       </c>
       <c r="L12">
-        <v>0.9807434424444718</v>
+        <v>1.006350254722109</v>
+      </c>
+      <c r="M12">
+        <v>1.034432631079231</v>
       </c>
       <c r="N12">
-        <v>0.9837701242766873</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007591914173882</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036639510587632</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.030157718436664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -806,34 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9507291476258409</v>
+        <v>0.9807120682071317</v>
       </c>
       <c r="D13">
-        <v>0.9812884497379293</v>
+        <v>1.012385433848889</v>
       </c>
       <c r="E13">
-        <v>0.9652526602271935</v>
+        <v>0.9913816724239936</v>
+      </c>
+      <c r="F13">
+        <v>1.020447079241753</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028666821297325</v>
+        <v>1.041653626640468</v>
       </c>
       <c r="J13">
-        <v>0.9826748281511541</v>
+        <v>1.011260070248031</v>
       </c>
       <c r="K13">
-        <v>0.9967378607295438</v>
+        <v>1.027235883557004</v>
       </c>
       <c r="L13">
-        <v>0.9810308889521158</v>
+        <v>1.006631273842577</v>
+      </c>
+      <c r="M13">
+        <v>1.035150001666342</v>
       </c>
       <c r="N13">
-        <v>0.9840703391215069</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007711037794956</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.037483872060844</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.030395747219094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -841,34 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9521033729555013</v>
+        <v>0.9814879629039562</v>
       </c>
       <c r="D14">
-        <v>0.9822442037371898</v>
+        <v>1.012955235380653</v>
       </c>
       <c r="E14">
-        <v>0.9663653918207515</v>
+        <v>0.9919891120416636</v>
+      </c>
+      <c r="F14">
+        <v>1.021262436261122</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028993702666348</v>
+        <v>1.041829855075604</v>
       </c>
       <c r="J14">
-        <v>0.9836527081825388</v>
+        <v>1.011688458180211</v>
       </c>
       <c r="K14">
-        <v>0.9975263407583985</v>
+        <v>1.027653555821292</v>
       </c>
       <c r="L14">
-        <v>0.9819686045495307</v>
+        <v>1.007080869455436</v>
+      </c>
+      <c r="M14">
+        <v>1.035810671345703</v>
       </c>
       <c r="N14">
-        <v>0.9850496078547006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007871407030296</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038179666569904</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.030692492157498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -876,34 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.952945410072775</v>
+        <v>0.9819196936431112</v>
       </c>
       <c r="D15">
-        <v>0.9828300374182452</v>
+        <v>1.013245648295192</v>
       </c>
       <c r="E15">
-        <v>0.9670474893776353</v>
+        <v>0.9923214777001446</v>
+      </c>
+      <c r="F15">
+        <v>1.021613582133839</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029193745154846</v>
+        <v>1.041910160417781</v>
       </c>
       <c r="J15">
-        <v>0.9842518810640446</v>
+        <v>1.011908696349797</v>
       </c>
       <c r="K15">
-        <v>0.9980094099612302</v>
+        <v>1.027851455998163</v>
       </c>
       <c r="L15">
-        <v>0.9825432405709202</v>
+        <v>1.007316925139078</v>
+      </c>
+      <c r="M15">
+        <v>1.036069362810131</v>
       </c>
       <c r="N15">
-        <v>0.9856496316304242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007949664304278</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.038421713156355</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03083832263851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -911,34 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9577773785928568</v>
+        <v>0.9842431962264067</v>
       </c>
       <c r="D16">
-        <v>0.9861947882586298</v>
+        <v>1.01469758332172</v>
       </c>
       <c r="E16">
-        <v>0.9709658610780104</v>
+        <v>0.9940876990659443</v>
+      </c>
+      <c r="F16">
+        <v>1.023113601007873</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030337822665351</v>
+        <v>1.042264707950537</v>
       </c>
       <c r="J16">
-        <v>0.9876899543546177</v>
+        <v>1.013017390885501</v>
       </c>
       <c r="K16">
-        <v>1.00078042975878</v>
+        <v>1.028770530257543</v>
       </c>
       <c r="L16">
-        <v>0.9858416119003462</v>
+        <v>1.008527534452164</v>
+      </c>
+      <c r="M16">
+        <v>1.037042216308462</v>
       </c>
       <c r="N16">
-        <v>0.9890925873794224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008322164500941</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039151892560465</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.031491335316877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -946,34 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9607498420147561</v>
+        <v>0.9856227511951285</v>
       </c>
       <c r="D17">
-        <v>0.9882671089785962</v>
+        <v>1.015515575928628</v>
       </c>
       <c r="E17">
-        <v>0.9733798572093429</v>
+        <v>0.9951288911357563</v>
+      </c>
+      <c r="F17">
+        <v>1.023832924907115</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031038159430368</v>
+        <v>1.042442412430254</v>
       </c>
       <c r="J17">
-        <v>0.9898046329357014</v>
+        <v>1.013644862034723</v>
       </c>
       <c r="K17">
-        <v>1.002484034002944</v>
+        <v>1.029256922125732</v>
       </c>
       <c r="L17">
-        <v>0.9878713080462308</v>
+        <v>1.009222871016339</v>
+      </c>
+      <c r="M17">
+        <v>1.037435594006119</v>
       </c>
       <c r="N17">
-        <v>0.991210269046648</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008524271779314</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.039333628760663</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.031837841058029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -981,34 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9624634201068543</v>
+        <v>0.9863097725892405</v>
       </c>
       <c r="D18">
-        <v>0.9894625795523462</v>
+        <v>1.015837365734397</v>
       </c>
       <c r="E18">
-        <v>0.9747727116313133</v>
+        <v>0.995631071059099</v>
+      </c>
+      <c r="F18">
+        <v>1.023883235756604</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031440614354137</v>
+        <v>1.042474162315711</v>
       </c>
       <c r="J18">
-        <v>0.9910235627883854</v>
+        <v>1.013900147083947</v>
       </c>
       <c r="K18">
-        <v>1.003465715832648</v>
+        <v>1.029388212800938</v>
       </c>
       <c r="L18">
-        <v>0.9890415886587246</v>
+        <v>1.009525646468508</v>
+      </c>
+      <c r="M18">
+        <v>1.037302065982629</v>
       </c>
       <c r="N18">
-        <v>0.9924309299195362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008592150693537</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.038990013462702</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.031918963746664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1016,34 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9630443571102701</v>
+        <v>0.986372782834634</v>
       </c>
       <c r="D19">
-        <v>0.9898679991628565</v>
+        <v>1.015714861261872</v>
       </c>
       <c r="E19">
-        <v>0.9752451198153075</v>
+        <v>0.995648109170802</v>
+      </c>
+      <c r="F19">
+        <v>1.023319720945078</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031576834728531</v>
+        <v>1.042378881902649</v>
       </c>
       <c r="J19">
-        <v>0.9914367754822189</v>
+        <v>1.013822979781229</v>
       </c>
       <c r="K19">
-        <v>1.00379845006516</v>
+        <v>1.029204619975918</v>
       </c>
       <c r="L19">
-        <v>0.9894383660313401</v>
+        <v>1.009477437814222</v>
+      </c>
+      <c r="M19">
+        <v>1.036685258028326</v>
       </c>
       <c r="N19">
-        <v>0.9928447294227912</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.00854322220312</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038176148952245</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.031795589948071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1051,34 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9604330342043411</v>
+        <v>0.9846718586048917</v>
       </c>
       <c r="D20">
-        <v>0.9880461534894387</v>
+        <v>1.014338153729639</v>
       </c>
       <c r="E20">
-        <v>0.9731224430363955</v>
+        <v>0.9942928115500947</v>
+      </c>
+      <c r="F20">
+        <v>1.021093449308172</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030963648982152</v>
+        <v>1.04192581961924</v>
       </c>
       <c r="J20">
-        <v>0.9895792632279633</v>
+        <v>1.012806715205338</v>
       </c>
       <c r="K20">
-        <v>1.002302504835474</v>
+        <v>1.028133483875974</v>
       </c>
       <c r="L20">
-        <v>0.9876549602718806</v>
+        <v>1.008436762866409</v>
+      </c>
+      <c r="M20">
+        <v>1.034775266237259</v>
       </c>
       <c r="N20">
-        <v>0.9909845792880752</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008163160176927</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.036135672066281</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031042192512044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1086,34 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9516996758897825</v>
+        <v>0.9803458376046938</v>
       </c>
       <c r="D21">
-        <v>0.9819633941456941</v>
+        <v>1.011556803503198</v>
       </c>
       <c r="E21">
-        <v>0.9660384517437867</v>
+        <v>0.9909862892749791</v>
+      </c>
+      <c r="F21">
+        <v>1.018045901935523</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028897728801866</v>
+        <v>1.041215336495798</v>
       </c>
       <c r="J21">
-        <v>0.983365444543947</v>
+        <v>1.010688911216492</v>
       </c>
       <c r="K21">
-        <v>0.9972947266079176</v>
+        <v>1.026322487360848</v>
       </c>
       <c r="L21">
-        <v>0.9816931244135586</v>
+        <v>1.006140465303596</v>
+      </c>
+      <c r="M21">
+        <v>1.032693268907857</v>
       </c>
       <c r="N21">
-        <v>0.9847619362687925</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007438097084447</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.03444689403813</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.029764980965731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1121,69 +1493,105 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9460070733481617</v>
+        <v>0.9775885039250937</v>
       </c>
       <c r="D22">
-        <v>0.9780076216612033</v>
+        <v>1.009799015453448</v>
       </c>
       <c r="E22">
-        <v>0.9614335649493221</v>
+        <v>0.9888883587809513</v>
+      </c>
+      <c r="F22">
+        <v>1.016165258721577</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027539937833723</v>
+        <v>1.040758886214899</v>
       </c>
       <c r="J22">
-        <v>0.9793146217145361</v>
+        <v>1.009344878681602</v>
       </c>
       <c r="K22">
-        <v>0.9940277144021769</v>
+        <v>1.025178819638334</v>
       </c>
       <c r="L22">
-        <v>0.9778098023731256</v>
+        <v>1.004683200703179</v>
+      </c>
+      <c r="M22">
+        <v>1.031423139565694</v>
       </c>
       <c r="N22">
-        <v>0.980705360806328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006978594428172</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.033441662570286</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.028942748410272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.9490449553765977</v>
+        <v>0.9790469260117104</v>
       </c>
       <c r="D23">
-        <v>0.9801177033842975</v>
+        <v>1.010722691636129</v>
       </c>
       <c r="E23">
-        <v>0.9638897372150729</v>
+        <v>0.9899960712613842</v>
+      </c>
+      <c r="F23">
+        <v>1.017156832711353</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02826553966745</v>
+        <v>1.040997543326837</v>
       </c>
       <c r="J23">
-        <v>0.981476364479308</v>
+        <v>1.010051970503609</v>
       </c>
       <c r="K23">
-        <v>0.9957713799411779</v>
+        <v>1.025776718864131</v>
       </c>
       <c r="L23">
-        <v>0.9798818491393759</v>
+        <v>1.005450872790968</v>
+      </c>
+      <c r="M23">
+        <v>1.032090778987733</v>
       </c>
       <c r="N23">
-        <v>0.9828701734937813</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007219543912563</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.033970059451848</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.029355792602938</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1191,34 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9605762482648609</v>
+        <v>0.984697255147746</v>
       </c>
       <c r="D24">
-        <v>0.9881460346775246</v>
+        <v>1.014321594993709</v>
       </c>
       <c r="E24">
-        <v>0.9732388042104502</v>
+        <v>0.9943061741745595</v>
+      </c>
+      <c r="F24">
+        <v>1.021021826213636</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03099733566381</v>
+        <v>1.041908828519231</v>
       </c>
       <c r="J24">
-        <v>0.9896811428510814</v>
+        <v>1.01279736869048</v>
       </c>
       <c r="K24">
-        <v>1.002384567032794</v>
+        <v>1.028101790151227</v>
       </c>
       <c r="L24">
-        <v>0.9877527604381763</v>
+        <v>1.008434023073694</v>
+      </c>
+      <c r="M24">
+        <v>1.034689565329179</v>
       </c>
       <c r="N24">
-        <v>0.9910866035919434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008156206008118</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.036026840456669</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.030992199433819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1226,31 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9731721637284539</v>
+        <v>0.9910494864500743</v>
       </c>
       <c r="D25">
-        <v>0.9969459614661145</v>
+        <v>1.018388295859657</v>
       </c>
       <c r="E25">
-        <v>0.9834973486141118</v>
+        <v>0.9991839183771517</v>
+      </c>
+      <c r="F25">
+        <v>1.025404945407516</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033932185584092</v>
+        <v>1.042892132395593</v>
       </c>
       <c r="J25">
-        <v>0.9986373960713252</v>
+        <v>1.015881871783142</v>
       </c>
       <c r="K25">
-        <v>1.009591873178848</v>
+        <v>1.030707709322481</v>
       </c>
       <c r="L25">
-        <v>0.9963573655595109</v>
+        <v>1.011794916185247</v>
+      </c>
+      <c r="M25">
+        <v>1.03762127967406</v>
       </c>
       <c r="N25">
-        <v>1.000055575719057</v>
+        <v>1.009208004198723</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.038347106526964</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.032831860835471</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9959403980453404</v>
+        <v>0.9961811044221025</v>
       </c>
       <c r="D2">
-        <v>1.021517721379767</v>
+        <v>1.021372822828606</v>
       </c>
       <c r="E2">
-        <v>1.002960780742471</v>
+        <v>1.003173594179234</v>
       </c>
       <c r="F2">
-        <v>1.0288014185806</v>
+        <v>1.028696782064352</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04360405598563</v>
+        <v>1.04355375045105</v>
       </c>
       <c r="J2">
-        <v>1.018243212822274</v>
+        <v>1.018476641071103</v>
       </c>
       <c r="K2">
-        <v>1.032685203623161</v>
+        <v>1.032542218788618</v>
       </c>
       <c r="L2">
-        <v>1.0143790207277</v>
+        <v>1.014588892153309</v>
       </c>
       <c r="M2">
-        <v>1.039873572534313</v>
+        <v>1.039770293526036</v>
       </c>
       <c r="N2">
-        <v>1.010010648003127</v>
+        <v>1.012115842034673</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.040129648442389</v>
+        <v>1.04004790998533</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03418148748179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034089208423904</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020748883468898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9994219273479075</v>
+        <v>0.9995484536104982</v>
       </c>
       <c r="D3">
-        <v>1.023762087200456</v>
+        <v>1.023474528166244</v>
       </c>
       <c r="E3">
-        <v>1.005664334117197</v>
+        <v>1.005777744477264</v>
       </c>
       <c r="F3">
-        <v>1.031238209644239</v>
+        <v>1.031030755922725</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044096367565531</v>
+        <v>1.043985575624561</v>
       </c>
       <c r="J3">
-        <v>1.019928363621473</v>
+        <v>1.020051435809465</v>
       </c>
       <c r="K3">
-        <v>1.03409969392326</v>
+        <v>1.033815606388351</v>
       </c>
       <c r="L3">
-        <v>1.01622524815248</v>
+        <v>1.016337227933861</v>
       </c>
       <c r="M3">
-        <v>1.041486404377823</v>
+        <v>1.041281410060884</v>
       </c>
       <c r="N3">
-        <v>1.01058431329238</v>
+        <v>1.012541922317446</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.041406096235578</v>
+        <v>1.041243857163599</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.035178985463981</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.034986656975575</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020991533177322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,105 +563,123 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001638454046872</v>
+        <v>1.001693111940916</v>
       </c>
       <c r="D4">
-        <v>1.02519447831588</v>
+        <v>1.024816613347845</v>
       </c>
       <c r="E4">
-        <v>1.007391567269426</v>
+        <v>1.007442319273862</v>
       </c>
       <c r="F4">
-        <v>1.032796559306532</v>
+        <v>1.032524124304178</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044400211239181</v>
+        <v>1.044251094783515</v>
       </c>
       <c r="J4">
-        <v>1.021000340660474</v>
+        <v>1.021053606677941</v>
       </c>
       <c r="K4">
-        <v>1.034998047884522</v>
+        <v>1.034624473048569</v>
       </c>
       <c r="L4">
-        <v>1.017401593711535</v>
+        <v>1.017451744309043</v>
       </c>
       <c r="M4">
-        <v>1.042514638527792</v>
+        <v>1.042245240469999</v>
       </c>
       <c r="N4">
-        <v>1.010949096893055</v>
+        <v>1.012813006376977</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042219873145481</v>
+        <v>1.042006663121152</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.035815106500964</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.035559583818345</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021143324945969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002564441828422</v>
+        <v>1.002589268024838</v>
       </c>
       <c r="D5">
-        <v>1.025795601192319</v>
+        <v>1.025380186451741</v>
       </c>
       <c r="E5">
-        <v>1.008114867841734</v>
+        <v>1.008139590603507</v>
       </c>
       <c r="F5">
-        <v>1.033449977005904</v>
+        <v>1.033150545729234</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044526100788344</v>
+        <v>1.044361034334525</v>
       </c>
       <c r="J5">
-        <v>1.021449218644537</v>
+        <v>1.021473431398197</v>
       </c>
       <c r="K5">
-        <v>1.03537530084386</v>
+        <v>1.034964478536182</v>
       </c>
       <c r="L5">
-        <v>1.017894161647922</v>
+        <v>1.017918599283823</v>
       </c>
       <c r="M5">
-        <v>1.042945867880578</v>
+        <v>1.04264968647984</v>
       </c>
       <c r="N5">
-        <v>1.011102024396919</v>
+        <v>1.012926720902934</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042561161373071</v>
+        <v>1.042326754282722</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.036089067252591</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.03580791679114</v>
+      </c>
+      <c r="S5">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T5">
+        <v>1.021206976659365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002722595135105</v>
+        <v>1.002742340245312</v>
       </c>
       <c r="D6">
-        <v>1.025900645368336</v>
+        <v>1.025478890664292</v>
       </c>
       <c r="E6">
-        <v>1.008238861731487</v>
+        <v>1.008259148157609</v>
       </c>
       <c r="F6">
-        <v>1.033562598062828</v>
+        <v>1.033258609935842</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044549037818784</v>
+        <v>1.04438126984089</v>
       </c>
       <c r="J6">
-        <v>1.021527423388269</v>
+        <v>1.021546683098749</v>
       </c>
       <c r="K6">
-        <v>1.035442747334508</v>
+        <v>1.035025634051582</v>
       </c>
       <c r="L6">
-        <v>1.017979432965088</v>
+        <v>1.01799948650545</v>
       </c>
       <c r="M6">
-        <v>1.043021188843631</v>
+        <v>1.04272048508958</v>
       </c>
       <c r="N6">
-        <v>1.011128927547659</v>
+        <v>1.012946768366618</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042620772692934</v>
+        <v>1.042382786491725</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.036145548515778</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035860816977664</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021218897941544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001659375171959</v>
+        <v>1.001720625074718</v>
       </c>
       <c r="D7">
-        <v>1.025214291110056</v>
+        <v>1.024840457986234</v>
       </c>
       <c r="E7">
-        <v>1.007408919671383</v>
+        <v>1.007465563926421</v>
       </c>
       <c r="F7">
-        <v>1.032813787570021</v>
+        <v>1.032544260449852</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044407290151468</v>
+        <v>1.044259977517455</v>
       </c>
       <c r="J7">
-        <v>1.021014653814199</v>
+        <v>1.021074344646014</v>
       </c>
       <c r="K7">
-        <v>1.035014733234347</v>
+        <v>1.034645142826694</v>
       </c>
       <c r="L7">
-        <v>1.017415768772194</v>
+        <v>1.017471742056326</v>
       </c>
       <c r="M7">
-        <v>1.042528800703901</v>
+        <v>1.042262276978127</v>
       </c>
       <c r="N7">
-        <v>1.010954687470272</v>
+        <v>1.012845058469889</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042231081531577</v>
+        <v>1.042020146346839</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.035847123076917</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.035596413039491</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021149079278629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.997135321881312</v>
+        <v>0.9973590098007168</v>
       </c>
       <c r="D8">
-        <v>1.022294979368331</v>
+        <v>1.022115787029853</v>
       </c>
       <c r="E8">
-        <v>1.003888748178878</v>
+        <v>1.004087275864681</v>
       </c>
       <c r="F8">
-        <v>1.029639351041058</v>
+        <v>1.029509993015922</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.043780205010723</v>
+        <v>1.043715713315948</v>
       </c>
       <c r="J8">
-        <v>1.018826949967044</v>
+        <v>1.019044099926399</v>
       </c>
       <c r="K8">
-        <v>1.033181187679274</v>
+        <v>1.033004292536615</v>
       </c>
       <c r="L8">
-        <v>1.015016300307076</v>
+        <v>1.015212165586685</v>
       </c>
       <c r="M8">
-        <v>1.04043226491871</v>
+        <v>1.040304535741451</v>
       </c>
       <c r="N8">
-        <v>1.010210332734629</v>
+        <v>1.012348779540927</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.040571816097002</v>
+        <v>1.040470727020178</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034555230543871</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034441236662774</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020840672873179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9888606741973579</v>
+        <v>0.9893641928761231</v>
       </c>
       <c r="D9">
-        <v>1.016975245413987</v>
+        <v>1.017140358596833</v>
       </c>
       <c r="E9">
-        <v>0.9974974580397499</v>
+        <v>0.997939050804391</v>
       </c>
       <c r="F9">
-        <v>1.023886298823904</v>
+        <v>1.024005774627518</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.0425524322925</v>
+        <v>1.042633797015146</v>
       </c>
       <c r="J9">
-        <v>1.014813017341102</v>
+        <v>1.015298201350429</v>
       </c>
       <c r="K9">
-        <v>1.029798786516652</v>
+        <v>1.029961334458978</v>
       </c>
       <c r="L9">
-        <v>1.010631268149206</v>
+        <v>1.011065654205406</v>
       </c>
       <c r="M9">
-        <v>1.036603370303042</v>
+        <v>1.036721021614586</v>
       </c>
       <c r="N9">
-        <v>1.008842363589899</v>
+        <v>1.01134384896185</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037541496638779</v>
+        <v>1.037634610141747</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.032160429038522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032286170045295</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.0202464858431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9831782557182951</v>
+        <v>0.9839083038371089</v>
       </c>
       <c r="D10">
-        <v>1.013377314963143</v>
+        <v>1.013799473060804</v>
       </c>
       <c r="E10">
-        <v>0.993149285971091</v>
+        <v>0.9937875627184442</v>
       </c>
       <c r="F10">
-        <v>1.020085750919775</v>
+        <v>1.020391672734684</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041682612825928</v>
+        <v>1.041872881865512</v>
       </c>
       <c r="J10">
-        <v>1.012075555753851</v>
+        <v>1.012775242029489</v>
       </c>
       <c r="K10">
-        <v>1.027509166666096</v>
+        <v>1.027923964903682</v>
       </c>
       <c r="L10">
-        <v>1.007643343722659</v>
+        <v>1.008269897946619</v>
       </c>
       <c r="M10">
-        <v>1.034101579942392</v>
+        <v>1.034402257828815</v>
       </c>
       <c r="N10">
-        <v>1.007912453730674</v>
+        <v>1.01078012133752</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035613104223461</v>
+        <v>1.035851057264324</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.030558425394281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030864203209638</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019844799612692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9810102102133846</v>
+        <v>0.981851552645218</v>
       </c>
       <c r="D11">
-        <v>1.012259119699948</v>
+        <v>1.012781487580161</v>
       </c>
       <c r="E11">
-        <v>0.9915449004998808</v>
+        <v>0.9922795464313672</v>
       </c>
       <c r="F11">
-        <v>1.019507523629773</v>
+        <v>1.019885723784199</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041499562379471</v>
+        <v>1.041730088784257</v>
       </c>
       <c r="J11">
-        <v>1.01119489567433</v>
+        <v>1.011999315279548</v>
       </c>
       <c r="K11">
-        <v>1.026953491756662</v>
+        <v>1.027466323117138</v>
       </c>
       <c r="L11">
-        <v>1.006628048732828</v>
+        <v>1.007348542812373</v>
       </c>
       <c r="M11">
-        <v>1.034070700537979</v>
+        <v>1.034442121809808</v>
       </c>
       <c r="N11">
-        <v>1.007642793742849</v>
+        <v>1.010820411551206</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036026112552458</v>
+        <v>1.036319902372773</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.030198592971262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030576894278619</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01979918172511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9803131052281626</v>
+        <v>0.9811853576312858</v>
       </c>
       <c r="D12">
-        <v>1.011994728825036</v>
+        <v>1.012539941845116</v>
       </c>
       <c r="E12">
-        <v>0.9910495454381999</v>
+        <v>0.9918102449878797</v>
       </c>
       <c r="F12">
-        <v>1.019672869985357</v>
+        <v>1.020067270577054</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041500098431472</v>
+        <v>1.041738089437949</v>
       </c>
       <c r="J12">
-        <v>1.010974668232809</v>
+        <v>1.011807897245811</v>
       </c>
       <c r="K12">
-        <v>1.026895681045565</v>
+        <v>1.027430776196723</v>
       </c>
       <c r="L12">
-        <v>1.006350254722109</v>
+        <v>1.007096047926669</v>
       </c>
       <c r="M12">
-        <v>1.034432631079231</v>
+        <v>1.034819853832194</v>
       </c>
       <c r="N12">
-        <v>1.007591914173882</v>
+        <v>1.01088735310971</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036639510587632</v>
+        <v>1.03694569507256</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.030157718436664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030551761710014</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019823494508841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9807120682071317</v>
+        <v>0.9815443570283099</v>
       </c>
       <c r="D13">
-        <v>1.012385433848889</v>
+        <v>1.012887861902132</v>
       </c>
       <c r="E13">
-        <v>0.9913816724239936</v>
+        <v>0.9921063234361355</v>
       </c>
       <c r="F13">
-        <v>1.020447079241753</v>
+        <v>1.020810196470243</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041653626640468</v>
+        <v>1.041871170430493</v>
       </c>
       <c r="J13">
-        <v>1.011260070248031</v>
+        <v>1.012055301538633</v>
       </c>
       <c r="K13">
-        <v>1.027235883557004</v>
+        <v>1.027729027788753</v>
       </c>
       <c r="L13">
-        <v>1.006631273842577</v>
+        <v>1.007341784509797</v>
       </c>
       <c r="M13">
-        <v>1.035150001666342</v>
+        <v>1.035506545202126</v>
       </c>
       <c r="N13">
-        <v>1.007711037794956</v>
+        <v>1.010946824947922</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037483872060844</v>
+        <v>1.037765726832118</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.030395747219094</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030759882785126</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019907775719161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9814879629039562</v>
+        <v>0.9822609079611571</v>
       </c>
       <c r="D14">
-        <v>1.012955235380653</v>
+        <v>1.013398716974687</v>
       </c>
       <c r="E14">
-        <v>0.9919891120416636</v>
+        <v>0.992661138377245</v>
       </c>
       <c r="F14">
-        <v>1.021262436261122</v>
+        <v>1.021582741360058</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041829855075604</v>
+        <v>1.042020921123301</v>
       </c>
       <c r="J14">
-        <v>1.011688458180211</v>
+        <v>1.012427477206565</v>
       </c>
       <c r="K14">
-        <v>1.027653555821292</v>
+        <v>1.028088944153456</v>
       </c>
       <c r="L14">
-        <v>1.007080869455436</v>
+        <v>1.007739947301011</v>
       </c>
       <c r="M14">
-        <v>1.035810671345703</v>
+        <v>1.036125252983208</v>
       </c>
       <c r="N14">
-        <v>1.007871407030296</v>
+        <v>1.010986285601843</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038179666569904</v>
+        <v>1.038428315984322</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.030692492157498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031015924694808</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019993960573985</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9819196936431112</v>
+        <v>0.9826631264377268</v>
       </c>
       <c r="D15">
-        <v>1.013245648295192</v>
+        <v>1.013660519720801</v>
       </c>
       <c r="E15">
-        <v>0.9923214777001446</v>
+        <v>0.9929675507167269</v>
       </c>
       <c r="F15">
-        <v>1.021613582133839</v>
+        <v>1.021913162757421</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041910160417781</v>
+        <v>1.04208877375322</v>
       </c>
       <c r="J15">
-        <v>1.011908696349797</v>
+        <v>1.012619782738949</v>
       </c>
       <c r="K15">
-        <v>1.027851455998163</v>
+        <v>1.028258813382571</v>
       </c>
       <c r="L15">
-        <v>1.007316925139078</v>
+        <v>1.007950645796099</v>
       </c>
       <c r="M15">
-        <v>1.036069362810131</v>
+        <v>1.036363631412931</v>
       </c>
       <c r="N15">
-        <v>1.007949664304278</v>
+        <v>1.010998809701596</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038421713156355</v>
+        <v>1.038654300750554</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03083832263851</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031142503683222</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020030876580304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9842431962264067</v>
+        <v>0.9848495157301941</v>
       </c>
       <c r="D16">
-        <v>1.01469758332172</v>
+        <v>1.0149794993324</v>
       </c>
       <c r="E16">
-        <v>0.9940876990659443</v>
+        <v>0.9946142474826322</v>
       </c>
       <c r="F16">
-        <v>1.023113601007873</v>
+        <v>1.023317068729485</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042264707950537</v>
+        <v>1.042387306025815</v>
       </c>
       <c r="J16">
-        <v>1.013017390885501</v>
+        <v>1.01359864813319</v>
       </c>
       <c r="K16">
-        <v>1.028770530257543</v>
+        <v>1.029047561378561</v>
       </c>
       <c r="L16">
-        <v>1.008527534452164</v>
+        <v>1.009044463097246</v>
       </c>
       <c r="M16">
-        <v>1.037042216308462</v>
+        <v>1.037242232570699</v>
       </c>
       <c r="N16">
-        <v>1.008322164500941</v>
+        <v>1.011053092956386</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039151892560465</v>
+        <v>1.039309988337609</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.031491335316877</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.031703667287065</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020182795631789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9856227511951285</v>
+        <v>0.9861631959561007</v>
       </c>
       <c r="D17">
-        <v>1.015515575928628</v>
+        <v>1.015731724494258</v>
       </c>
       <c r="E17">
-        <v>0.9951288911357563</v>
+        <v>0.9955984885530749</v>
       </c>
       <c r="F17">
-        <v>1.023832924907115</v>
+        <v>1.023988919252572</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042442412430254</v>
+        <v>1.042538063453003</v>
       </c>
       <c r="J17">
-        <v>1.013644862034723</v>
+        <v>1.014163686716964</v>
       </c>
       <c r="K17">
-        <v>1.029256922125732</v>
+        <v>1.029469429725411</v>
       </c>
       <c r="L17">
-        <v>1.009222871016339</v>
+        <v>1.009684134865031</v>
       </c>
       <c r="M17">
-        <v>1.037435594006119</v>
+        <v>1.037589015113352</v>
       </c>
       <c r="N17">
-        <v>1.008524271779314</v>
+        <v>1.01110352155887</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039333628760663</v>
+        <v>1.039454907136895</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.031837841058029</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03200479841229</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02025498532657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9863097725892405</v>
+        <v>0.9868302827542256</v>
       </c>
       <c r="D18">
-        <v>1.015837365734397</v>
+        <v>1.01603416565083</v>
       </c>
       <c r="E18">
-        <v>0.995631071059099</v>
+        <v>0.996084070925258</v>
       </c>
       <c r="F18">
-        <v>1.023883235756604</v>
+        <v>1.024025331525268</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042474162315711</v>
+        <v>1.042563121852527</v>
       </c>
       <c r="J18">
-        <v>1.013900147083947</v>
+        <v>1.014400227796386</v>
       </c>
       <c r="K18">
-        <v>1.029388212800938</v>
+        <v>1.02958175150788</v>
       </c>
       <c r="L18">
-        <v>1.009525646468508</v>
+        <v>1.009970742499171</v>
       </c>
       <c r="M18">
-        <v>1.037302065982629</v>
+        <v>1.037441854183817</v>
       </c>
       <c r="N18">
-        <v>1.008592150693537</v>
+        <v>1.011112957838711</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.038990013462702</v>
+        <v>1.039100538207002</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.031918963746664</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032071376204235</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020255757354019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.986372782834634</v>
+        <v>0.9869092172100812</v>
       </c>
       <c r="D19">
-        <v>1.015714861261872</v>
+        <v>1.015931041221781</v>
       </c>
       <c r="E19">
-        <v>0.995648109170802</v>
+        <v>0.9961159160577155</v>
       </c>
       <c r="F19">
-        <v>1.023319720945078</v>
+        <v>1.023475960926004</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042378881902649</v>
+        <v>1.042477979722704</v>
       </c>
       <c r="J19">
-        <v>1.013822979781229</v>
+        <v>1.014338487548814</v>
       </c>
       <c r="K19">
-        <v>1.029204619975918</v>
+        <v>1.029417235702968</v>
       </c>
       <c r="L19">
-        <v>1.009477437814222</v>
+        <v>1.009937126911829</v>
       </c>
       <c r="M19">
-        <v>1.036685258028326</v>
+        <v>1.036838970750786</v>
       </c>
       <c r="N19">
-        <v>1.00854322220312</v>
+        <v>1.011068647997452</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038176148952245</v>
+        <v>1.038297723106654</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.031795589948071</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.031962115339454</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020194011315993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9846718586048917</v>
+        <v>0.9853214435321559</v>
       </c>
       <c r="D20">
-        <v>1.014338153729639</v>
+        <v>1.014679184250246</v>
       </c>
       <c r="E20">
-        <v>0.9942928115500947</v>
+        <v>0.9948606937676305</v>
       </c>
       <c r="F20">
-        <v>1.021093449308172</v>
+        <v>1.021340484315861</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04192581961924</v>
+        <v>1.042081214328954</v>
       </c>
       <c r="J20">
-        <v>1.012806715205338</v>
+        <v>1.013430165342519</v>
       </c>
       <c r="K20">
-        <v>1.028133483875974</v>
+        <v>1.028468737109948</v>
       </c>
       <c r="L20">
-        <v>1.008436762866409</v>
+        <v>1.008994517682344</v>
       </c>
       <c r="M20">
-        <v>1.034775266237259</v>
+        <v>1.035018186827918</v>
       </c>
       <c r="N20">
-        <v>1.008163160176927</v>
+        <v>1.010860204165847</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036135672066281</v>
+        <v>1.036327918985475</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031042192512044</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031295821011844</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019955165717657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9803458376046938</v>
+        <v>0.9812739277723086</v>
       </c>
       <c r="D21">
-        <v>1.011556803503198</v>
+        <v>1.012166942892446</v>
       </c>
       <c r="E21">
-        <v>0.9909862892749791</v>
+        <v>0.9917988145050702</v>
       </c>
       <c r="F21">
-        <v>1.018045901935523</v>
+        <v>1.018488499540987</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041215336495798</v>
+        <v>1.041487254248732</v>
       </c>
       <c r="J21">
-        <v>1.010688911216492</v>
+        <v>1.011575992291045</v>
       </c>
       <c r="K21">
-        <v>1.026322487360848</v>
+        <v>1.026921417804457</v>
       </c>
       <c r="L21">
-        <v>1.006140465303596</v>
+        <v>1.006937244646392</v>
       </c>
       <c r="M21">
-        <v>1.032693268907857</v>
+        <v>1.033127867959059</v>
       </c>
       <c r="N21">
-        <v>1.007438097084447</v>
+        <v>1.010773739938601</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.03444689403813</v>
+        <v>1.034790852884919</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.029764980965731</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030205372489203</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019644324509048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,105 +1679,123 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9775885039250937</v>
+        <v>0.9786924368534573</v>
       </c>
       <c r="D22">
-        <v>1.009799015453448</v>
+        <v>1.010579310495392</v>
       </c>
       <c r="E22">
-        <v>0.9888883587809513</v>
+        <v>0.9898553297699894</v>
       </c>
       <c r="F22">
-        <v>1.016165258721577</v>
+        <v>1.016731748477835</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040758886214899</v>
+        <v>1.041104565954459</v>
       </c>
       <c r="J22">
-        <v>1.009344878681602</v>
+        <v>1.010397188348921</v>
       </c>
       <c r="K22">
-        <v>1.025178819638334</v>
+        <v>1.025944062637171</v>
       </c>
       <c r="L22">
-        <v>1.004683200703179</v>
+        <v>1.005630469410947</v>
       </c>
       <c r="M22">
-        <v>1.031423139565694</v>
+        <v>1.031978876889738</v>
       </c>
       <c r="N22">
-        <v>1.006978594428172</v>
+        <v>1.010711746909866</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033441662570286</v>
+        <v>1.033881495626558</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.028942748410272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029499435833867</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.01944712452618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9790469260117104</v>
+        <v>0.9800458874610692</v>
       </c>
       <c r="D23">
-        <v>1.010722691636129</v>
+        <v>1.01140470155833</v>
       </c>
       <c r="E23">
-        <v>0.9899960712613842</v>
+        <v>0.9908705884650122</v>
       </c>
       <c r="F23">
-        <v>1.017156832711353</v>
+        <v>1.01765175373982</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040997543326837</v>
+        <v>1.041300459876708</v>
       </c>
       <c r="J23">
-        <v>1.010051970503609</v>
+        <v>1.011005589044455</v>
       </c>
       <c r="K23">
-        <v>1.025776718864131</v>
+        <v>1.026445905832402</v>
       </c>
       <c r="L23">
-        <v>1.005450872790968</v>
+        <v>1.006308034929804</v>
       </c>
       <c r="M23">
-        <v>1.032090778987733</v>
+        <v>1.032576545244862</v>
       </c>
       <c r="N23">
-        <v>1.007219543912563</v>
+        <v>1.010699938369024</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033970059451848</v>
+        <v>1.034354514294489</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.029355792602938</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029843621407654</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019546574876053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.984697255147746</v>
+        <v>0.9853479084527345</v>
       </c>
       <c r="D24">
-        <v>1.014321594993709</v>
+        <v>1.014664068202179</v>
       </c>
       <c r="E24">
-        <v>0.9943061741745595</v>
+        <v>0.9948751075409165</v>
       </c>
       <c r="F24">
-        <v>1.021021826213636</v>
+        <v>1.021269940082016</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041908828519231</v>
+        <v>1.042065146378538</v>
       </c>
       <c r="J24">
-        <v>1.01279736869048</v>
+        <v>1.013421883094312</v>
       </c>
       <c r="K24">
-        <v>1.028101790151227</v>
+        <v>1.028438468848735</v>
       </c>
       <c r="L24">
-        <v>1.008434023073694</v>
+        <v>1.008992823764309</v>
       </c>
       <c r="M24">
-        <v>1.034689565329179</v>
+        <v>1.034933551367341</v>
       </c>
       <c r="N24">
-        <v>1.008156206008118</v>
+        <v>1.010851230234958</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036026840456669</v>
+        <v>1.03621994022898</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.030992199433819</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03124416793867</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019943214132824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9910494864500743</v>
+        <v>0.9914691596647073</v>
       </c>
       <c r="D25">
-        <v>1.018388295859657</v>
+        <v>1.018456171257367</v>
       </c>
       <c r="E25">
-        <v>0.9991839183771517</v>
+        <v>0.9995525549145167</v>
       </c>
       <c r="F25">
-        <v>1.025404945407516</v>
+        <v>1.025454029267152</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042892132395593</v>
+        <v>1.042932121649341</v>
       </c>
       <c r="J25">
-        <v>1.015881871783142</v>
+        <v>1.0162870712711</v>
       </c>
       <c r="K25">
-        <v>1.030707709322481</v>
+        <v>1.03077457894014</v>
       </c>
       <c r="L25">
-        <v>1.011794916185247</v>
+        <v>1.012157820864933</v>
       </c>
       <c r="M25">
-        <v>1.03762127967406</v>
+        <v>1.037669648761607</v>
       </c>
       <c r="N25">
-        <v>1.009208004198723</v>
+        <v>1.011579742691785</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038347106526964</v>
+        <v>1.038385387530468</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.032831860835471</v>
+        <v>1.032892748740692</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020408831636543</v>
       </c>
     </row>
   </sheetData>
